--- a/Batch 2018-20/Sem 1/5-ME.xlsx
+++ b/Batch 2018-20/Sem 1/5-ME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\AutoMBA\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek Chitnis\Videos\Results Genetaor\Batch 2018-20\Sem 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B410957-16DA-4401-AA6D-162EED20CA57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EFE3DA-5A3A-40B2-B0E4-92CF67BB1E8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="11400" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ME" sheetId="1" r:id="rId1"/>
@@ -273,9 +273,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -312,13 +309,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -340,1059 +371,1067 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="A2">
-            <v>1719001</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Vasant Govind Patil</v>
+          <cell r="A2" t="str">
+            <v>MMS18-20/1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>ADEPU CHETAN GANESH ARCHANA</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="A3">
-            <v>1719002</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>Debjyoti Roy Patil</v>
+          <cell r="A3" t="str">
+            <v>MMS18-20/2</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>ADIVAREKAR PRITI GIRIGHAR NAMRATA</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="A4">
-            <v>1719003</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>Kaustav Saha Patil</v>
+          <cell r="A4" t="str">
+            <v>MMS18-20/3</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>AMBALLA VISHAL MANOHAR BHARATHI</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="A5">
-            <v>1719004</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>Debobrata Podder Patil</v>
+          <cell r="A5" t="str">
+            <v>MMS18-20/4</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>AMIN MEENAL PRAVIN ANITA</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="A6">
-            <v>1719005</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>Anurag Mark Topno</v>
+          <cell r="A6" t="str">
+            <v>MMS18-20/5</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>ARANJO JULIANA MICHAEL LEENA</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="A7">
-            <v>1719006</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>Tarun Minz Topno</v>
+          <cell r="A7" t="str">
+            <v>MMS18-20/6</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>BAGUL PRANAV PRAMOD MEENA</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="A8">
-            <v>1719007</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>Praveen Rao Rokkam</v>
+          <cell r="A8" t="str">
+            <v>MMS18-20/7</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>BAMANE RENUKA UTTAM SUNITA</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="A9">
-            <v>1719008</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>Arindam Sharma Rokkam</v>
+          <cell r="A9" t="str">
+            <v>MMS18-20/8</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>BANSODE NAMRATA SUHAS SANGEETA</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="A10">
-            <v>1719009</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>Kaustubh Tripathi Rokkam</v>
+          <cell r="A10" t="str">
+            <v>MMS18-20/9</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>BHAJANI DHANASHREE MANOHAR KAVITA</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="A11">
-            <v>1719010</v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>Nakul Gupta Rokkam</v>
+          <cell r="A11" t="str">
+            <v>MMS18-20/10</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>BHANGALE BHUPENDRA RAMESH JYOTI</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="A12">
-            <v>1719011</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>Gaurav Kumar Rokkam</v>
+          <cell r="A12" t="str">
+            <v>MMS18-20/11</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>BHATKAR ANAGHA ANIL AKSHATA</v>
           </cell>
         </row>
         <row r="13">
-          <cell r="A13">
-            <v>1719012</v>
-          </cell>
-          <cell r="E13" t="str">
-            <v>Abhiram Kasina Rokkam</v>
+          <cell r="A13" t="str">
+            <v>MMS18-20/12</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>BHOIR PRANAV SURESH SWETA</v>
           </cell>
         </row>
         <row r="14">
-          <cell r="A14">
-            <v>1719013</v>
-          </cell>
-          <cell r="E14" t="str">
-            <v>Biplab Sinha Rokkam</v>
+          <cell r="A14" t="str">
+            <v>MMS18-20/13</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>BHOIR VINAYAK CHINTAMAN SHALINI</v>
           </cell>
         </row>
         <row r="15">
-          <cell r="A15">
-            <v>1719014</v>
-          </cell>
-          <cell r="E15" t="str">
-            <v>M Jagan Mohan</v>
+          <cell r="A15" t="str">
+            <v>MMS18-20/14</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>BHOSALE MAYUR PRATAPRAO USHA</v>
           </cell>
         </row>
         <row r="16">
-          <cell r="A16">
-            <v>1719015</v>
-          </cell>
-          <cell r="E16" t="str">
-            <v>Asit Parija Mohan</v>
+          <cell r="A16" t="str">
+            <v>MMS18-20/15</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>BIDVI ABOLI AJENDRA NEHA</v>
           </cell>
         </row>
         <row r="17">
-          <cell r="A17">
-            <v>1719016</v>
-          </cell>
-          <cell r="E17" t="str">
-            <v>Shenoy Naresh Keshav</v>
+          <cell r="A17" t="str">
+            <v>MMS18-20/16</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>BORKAR DIPESH SHYAM SANGITA</v>
           </cell>
         </row>
         <row r="18">
-          <cell r="A18">
-            <v>1719017</v>
-          </cell>
-          <cell r="E18" t="str">
-            <v>Amit Kumar Suthar</v>
+          <cell r="A18" t="str">
+            <v>MMS18-20/17</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>CHANDORKAR PRAJAL MADHUKAR VANITA</v>
           </cell>
         </row>
         <row r="19">
-          <cell r="A19">
-            <v>1719018</v>
-          </cell>
-          <cell r="E19" t="str">
-            <v>Amar Singh Patel</v>
+          <cell r="A19" t="str">
+            <v>MMS18-20/18</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>CHAUDHARI TRUPAL JEEVAN SMITA</v>
           </cell>
         </row>
         <row r="20">
-          <cell r="A20">
-            <v>1719019</v>
-          </cell>
-          <cell r="E20" t="str">
-            <v>Rahul Jaimini Patel</v>
+          <cell r="A20" t="str">
+            <v>MMS18-20/19</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>CHAVAN SURAJ SURESH SUREKHA</v>
           </cell>
         </row>
         <row r="21">
-          <cell r="A21">
-            <v>1719020</v>
-          </cell>
-          <cell r="E21" t="str">
-            <v>Rohit Rajgarhia Patel</v>
+          <cell r="A21" t="str">
+            <v>MMS18-20/20</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>CHAWHAN SAMTA VIJAY SUNITA</v>
           </cell>
         </row>
         <row r="22">
-          <cell r="A22">
-            <v>1719021</v>
-          </cell>
-          <cell r="E22" t="str">
-            <v>Akshit Sharma Patel</v>
+          <cell r="A22" t="str">
+            <v>MMS18-20/21</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>DESAI SAURABH HARESH HARSHADA</v>
           </cell>
         </row>
         <row r="23">
-          <cell r="A23">
-            <v>1719022</v>
-          </cell>
-          <cell r="E23" t="str">
-            <v>Divya Kumar Kala</v>
+          <cell r="A23" t="str">
+            <v>MMS18-20/22</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="A24">
-            <v>1719023</v>
-          </cell>
-          <cell r="E24" t="str">
-            <v>Sri Harshad Kala</v>
+          <cell r="A24" t="str">
+            <v>MMS18-20/23</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v xml:space="preserve">PICHAD DESHMUKH GIRIJA HEMANT MOHINI </v>
           </cell>
         </row>
         <row r="25">
-          <cell r="A25">
-            <v>1719024</v>
-          </cell>
-          <cell r="E25" t="str">
-            <v>Micky Mrinal Minz</v>
+          <cell r="A25" t="str">
+            <v>MMS18-20/24</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>DHUMAL SAURABH RAMESH RAJASHREE</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="A26">
-            <v>1719025</v>
-          </cell>
-          <cell r="E26" t="str">
-            <v>Nishant Mundu Minz</v>
+          <cell r="A26" t="str">
+            <v>MMS18-20/25</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>DSOUZA FLOSSIE JOACHIM RITA</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="A27">
-            <v>1719026</v>
-          </cell>
-          <cell r="E27" t="str">
-            <v>Vinu Rajashekhar Minz</v>
+          <cell r="A27" t="str">
+            <v>MMS18-20/26</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>DYWARSHETTY NEELIMA VENUGOPAL INDUMATI</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="A28">
-            <v>1719027</v>
-          </cell>
-          <cell r="E28" t="str">
-            <v>Mainack Mondal Minz</v>
+          <cell r="A28" t="str">
+            <v>MMS18-20/27</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>ERANDE TRUPTI UTTAM SUNITA</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="A29">
-            <v>1719028</v>
-          </cell>
-          <cell r="E29" t="str">
-            <v>Debabrata Dey Minz</v>
+          <cell r="A29" t="str">
+            <v>MMS18-20/28</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>GAMBHIRRAO MANISH HARISHCHANDRA RANJANA</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="A30">
-            <v>1719029</v>
-          </cell>
-          <cell r="E30" t="str">
-            <v>Vivekananda Najumudheen Bhat</v>
+          <cell r="A30" t="str">
+            <v>MMS18-20/29</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>GANGANI ANKIT SURESH TEJAL</v>
           </cell>
         </row>
         <row r="31">
-          <cell r="A31">
-            <v>1719030</v>
-          </cell>
-          <cell r="E31" t="str">
-            <v>Praveen Ankit Sonare</v>
+          <cell r="A31" t="str">
+            <v>MMS18-20/30</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>GANGURDE SAKSHI SUDHIR ASHA</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="A32">
-            <v>1719031</v>
-          </cell>
-          <cell r="E32" t="str">
-            <v>Ravi Rattan Sonare</v>
+          <cell r="A32" t="str">
+            <v>MMS18-20/31</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>GHUMARE SANKET RAMESH JAYSHREE</v>
           </cell>
         </row>
         <row r="33">
-          <cell r="A33">
-            <v>1719032</v>
-          </cell>
-          <cell r="E33" t="str">
-            <v>Anindya Bhowmik Sonare</v>
+          <cell r="A33" t="str">
+            <v>MMS18-20/32</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>GUPTA NITIN RAJESH CHANDRAKALA</v>
           </cell>
         </row>
         <row r="34">
-          <cell r="A34">
-            <v>1719033</v>
-          </cell>
-          <cell r="E34" t="str">
-            <v>Bishal Lama Sonare</v>
+          <cell r="A34" t="str">
+            <v>MMS18-20/33</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>HANDE RAHUL RANGARAO NALINI</v>
           </cell>
         </row>
         <row r="35">
-          <cell r="A35">
-            <v>1719034</v>
-          </cell>
-          <cell r="E35" t="str">
-            <v>Arun Kumar Saragadam</v>
+          <cell r="A35" t="str">
+            <v>MMS18-20/34</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>HARMALKAR PRATHAMESH SUBHASH SUBHASHINI</v>
           </cell>
         </row>
         <row r="36">
-          <cell r="A36">
-            <v>1719035</v>
-          </cell>
-          <cell r="E36" t="str">
-            <v>Arit Kumar Mondal</v>
+          <cell r="A36" t="str">
+            <v>MMS18-20/35</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>KADAM AVIRAJ MOHAN MOHINI</v>
           </cell>
         </row>
         <row r="37">
-          <cell r="A37">
-            <v>1719036</v>
-          </cell>
-          <cell r="E37" t="str">
-            <v>Akash Rao Mondal</v>
+          <cell r="A37" t="str">
+            <v>MMS18-20/36</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>JADHAV ANKUR SHIVAJI ANAGHA</v>
           </cell>
         </row>
         <row r="38">
-          <cell r="A38">
-            <v>1719037</v>
-          </cell>
-          <cell r="E38" t="str">
-            <v>Marut Agarwal Mondal</v>
+          <cell r="A38" t="str">
+            <v>MMS18-20/37</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>KADAM AKSHAY RAMESH REEMA</v>
           </cell>
         </row>
         <row r="39">
-          <cell r="A39">
-            <v>1719038</v>
-          </cell>
-          <cell r="E39" t="str">
-            <v>Abhishek Pratap Singh</v>
+          <cell r="A39" t="str">
+            <v>MMS18-20/38</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>KADAM SHANTANU DILEEP ANITA</v>
           </cell>
         </row>
         <row r="40">
-          <cell r="A40">
-            <v>1719039</v>
-          </cell>
-          <cell r="E40" t="str">
-            <v>Sushant Kumar Singh</v>
+          <cell r="A40" t="str">
+            <v>MMS18-20/39</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>KAMBLE NIKHIL KESHAVRAO SUSHILA</v>
           </cell>
         </row>
         <row r="41">
-          <cell r="A41">
-            <v>1719040</v>
-          </cell>
-          <cell r="E41" t="str">
-            <v>Arpit Mishra Singh</v>
+          <cell r="A41" t="str">
+            <v>MMS18-20/40</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>KAMBLE SIDDHESH RAMESH SUHASINI</v>
           </cell>
         </row>
         <row r="42">
-          <cell r="A42">
-            <v>1719041</v>
-          </cell>
-          <cell r="E42" t="str">
-            <v>Abhinav Gupta Singh</v>
+          <cell r="A42" t="str">
+            <v>MMS18-20/41</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>KATARE MAYANK PRAMOD PRANITA</v>
           </cell>
         </row>
         <row r="43">
-          <cell r="A43">
-            <v>1719042</v>
-          </cell>
-          <cell r="E43" t="str">
-            <v>Togarrati Venkata Nagesh</v>
+          <cell r="A43" t="str">
+            <v>MMS18-20/42</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>KHAN SAIF ALI NIZAM BILKIS</v>
           </cell>
         </row>
         <row r="44">
-          <cell r="A44">
-            <v>1719043</v>
-          </cell>
-          <cell r="E44" t="str">
-            <v>Pam Revanth Nagesh</v>
+          <cell r="A44" t="str">
+            <v>MMS18-20/43</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
           </cell>
         </row>
         <row r="45">
-          <cell r="A45">
-            <v>1719044</v>
-          </cell>
-          <cell r="E45" t="str">
-            <v>Gourav Khaneja Nagesh</v>
+          <cell r="A45" t="str">
+            <v>MMS18-20/44</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>KOLGE VARDA DEEPAK AARTI</v>
           </cell>
         </row>
         <row r="46">
-          <cell r="A46">
-            <v>1719045</v>
-          </cell>
-          <cell r="E46" t="str">
-            <v>Mayank Jaiswal Nagesh</v>
+          <cell r="A46" t="str">
+            <v>MMS18-20/45</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>KOLI PRATIK PRABHAKAR NALINI</v>
           </cell>
         </row>
         <row r="47">
-          <cell r="A47">
-            <v>1719046</v>
-          </cell>
-          <cell r="E47" t="str">
-            <v>Amit Shanker Nagesh</v>
+          <cell r="A47" t="str">
+            <v>MMS18-20/46</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>KONDEKAR VAIBHAV VIJAY VAISHALI</v>
           </cell>
         </row>
         <row r="48">
-          <cell r="A48">
-            <v>1719047</v>
-          </cell>
-          <cell r="E48" t="str">
-            <v>Abhinav Anand Nagesh</v>
+          <cell r="A48" t="str">
+            <v>MMS18-20/47</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>KORE PRASHEEL PRASHANT SHEELA</v>
           </cell>
         </row>
         <row r="49">
-          <cell r="A49">
-            <v>1719048</v>
-          </cell>
-          <cell r="E49" t="str">
-            <v>Varun K Choudhary</v>
+          <cell r="A49" t="str">
+            <v>MMS18-20/48</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>LATE VISHAL BALASAHEB PRAMILA</v>
           </cell>
         </row>
         <row r="50">
-          <cell r="A50">
-            <v>1719049</v>
-          </cell>
-          <cell r="E50" t="str">
-            <v>Diptesh Chatterjee Choudhary</v>
+          <cell r="A50" t="str">
+            <v>MMS18-20/49</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v xml:space="preserve">LOKE TEJAL JITENDRA GEETA </v>
           </cell>
         </row>
         <row r="51">
-          <cell r="A51">
-            <v>1719050</v>
-          </cell>
-          <cell r="E51" t="str">
-            <v>Anuj Kumar Singh</v>
+          <cell r="A51" t="str">
+            <v>MMS18-20/50</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>MANDAVKAR CHAITRALI SANJAY SUCHITA</v>
           </cell>
         </row>
         <row r="52">
-          <cell r="A52">
-            <v>1719051</v>
-          </cell>
-          <cell r="E52" t="str">
-            <v>Dilpreet Singh Singh</v>
+          <cell r="A52" t="str">
+            <v>MMS18-20/51</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>MARCHANDE SHWETA SHANTARAM SHEETAL</v>
           </cell>
         </row>
         <row r="53">
-          <cell r="A53">
-            <v>1719052</v>
-          </cell>
-          <cell r="E53" t="str">
-            <v>Amit Sharma Singh</v>
+          <cell r="A53" t="str">
+            <v>MMS18-20/52</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>MHATRE VARAD GURUNATH SUSHMA</v>
           </cell>
         </row>
         <row r="54">
-          <cell r="A54">
-            <v>1719053</v>
-          </cell>
-          <cell r="E54" t="str">
-            <v>Kammara Yashwanth Kumar</v>
+          <cell r="A54" t="str">
+            <v>MMS18-20/53</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>MISHRA RASHMI SHIVKANT PRATIBHA</v>
           </cell>
         </row>
         <row r="55">
-          <cell r="A55">
-            <v>1719054</v>
-          </cell>
-          <cell r="E55" t="str">
-            <v>Mani Kumar Nallani</v>
+          <cell r="A55" t="str">
+            <v>MMS18-20/54</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>NAIR ANAGHA ANANDKUMAR BHANUMATHI</v>
           </cell>
         </row>
         <row r="56">
-          <cell r="A56">
-            <v>1719055</v>
-          </cell>
-          <cell r="E56" t="str">
-            <v>Rahul Saxena Nallani</v>
+          <cell r="A56" t="str">
+            <v>MMS18-20/55</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v xml:space="preserve">PANCHAL ANIKET AVINASH AARTI </v>
           </cell>
         </row>
         <row r="57">
-          <cell r="A57">
-            <v>1719056</v>
-          </cell>
-          <cell r="E57" t="str">
-            <v>Sahil Goyal Nallani</v>
+          <cell r="A57" t="str">
+            <v>MMS18-20/56</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>SHAIKH SAMEER MOHAMMADHUSSAIN FATIMA</v>
           </cell>
         </row>
         <row r="58">
-          <cell r="A58">
-            <v>1719057</v>
-          </cell>
-          <cell r="E58" t="str">
-            <v>Dodda Raviteja Nallani</v>
+          <cell r="A58" t="str">
+            <v>MMS18-20/57</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>SHAMBHARKAR PALLAVI JAGDISH MINAKSHI</v>
           </cell>
         </row>
         <row r="59">
-          <cell r="A59">
-            <v>1719058</v>
-          </cell>
-          <cell r="E59" t="str">
-            <v>Anirudha Patro Nallani</v>
+          <cell r="A59" t="str">
+            <v>MMS18-20/58</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>SINGH ASHWIN BHAGWANPRASAD SADHANA</v>
           </cell>
         </row>
         <row r="60">
-          <cell r="A60">
-            <v>1719059</v>
-          </cell>
-          <cell r="E60" t="str">
-            <v>Mullapudi Pavan Nithin</v>
+          <cell r="A60" t="str">
+            <v>MMS18-20/59</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>WANKHADE NIKHIL MADHUKAR JYOTI</v>
           </cell>
         </row>
         <row r="61">
-          <cell r="A61">
-            <v>1719060</v>
-          </cell>
-          <cell r="E61" t="str">
-            <v>Sameer Hembrom Nithin</v>
+          <cell r="A61" t="str">
+            <v>MMS18-20/60</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>WORLIKAR SIDDHANT PANKAJ VIDYA</v>
           </cell>
         </row>
         <row r="62">
-          <cell r="A62">
-            <v>1719061</v>
-          </cell>
-          <cell r="E62" t="str">
-            <v>Ayan Mazumdar Nithin</v>
+          <cell r="A62" t="str">
+            <v>MMS18-20/61</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>AGATE AKASH PRAKASH KIRAN</v>
           </cell>
         </row>
         <row r="63">
-          <cell r="A63">
-            <v>1719062</v>
-          </cell>
-          <cell r="E63" t="str">
-            <v>Kiran Kumar Bollam</v>
+          <cell r="A63" t="str">
+            <v>MMS18-20/62</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>AVHAD VISHAKHA MILIND RAKHI</v>
           </cell>
         </row>
         <row r="64">
-          <cell r="A64">
-            <v>1719063</v>
-          </cell>
-          <cell r="E64" t="str">
-            <v>Biswajyoti Das Bollam</v>
+          <cell r="A64" t="str">
+            <v>MMS18-20/63</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>CHILE VARAD KISHOR NEHA</v>
           </cell>
         </row>
         <row r="65">
-          <cell r="A65">
-            <v>1719064</v>
-          </cell>
-          <cell r="E65" t="str">
-            <v>Arka Aloke Bhattacharya</v>
+          <cell r="A65" t="str">
+            <v>MMS18-20/64</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>DALVI AKASH SHANKAR NIRMALA</v>
           </cell>
         </row>
         <row r="66">
-          <cell r="A66">
-            <v>1719065</v>
-          </cell>
-          <cell r="E66" t="str">
-            <v>Abhijeet Kumar Bhattacharya</v>
+          <cell r="A66" t="str">
+            <v>MMS18-20/65</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>DALVI RUTUJA JAGDISH SUPRIYA</v>
           </cell>
         </row>
         <row r="67">
-          <cell r="A67">
-            <v>1719066</v>
-          </cell>
-          <cell r="E67" t="str">
-            <v>Alok Kumar Yadav</v>
+          <cell r="A67" t="str">
+            <v>MMS18-20/66</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v xml:space="preserve">GANDHI BHAVIK AJAY HARSHA </v>
           </cell>
         </row>
         <row r="68">
-          <cell r="A68">
-            <v>1719067</v>
-          </cell>
-          <cell r="E68" t="str">
-            <v>Anshul Rai Yadav</v>
+          <cell r="A68" t="str">
+            <v>MMS18-20/67</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>GUNDU MEGHNA GUNASHALI SUJATHA</v>
           </cell>
         </row>
         <row r="69">
-          <cell r="A69">
-            <v>1719068</v>
-          </cell>
-          <cell r="E69" t="str">
-            <v>Mohit Singh Yadav</v>
+          <cell r="A69" t="str">
+            <v>MMS18-20/68</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>GUPTA AAYUSH NEELKAMAL MANSHA</v>
           </cell>
         </row>
         <row r="70">
-          <cell r="A70">
-            <v>1719069</v>
-          </cell>
-          <cell r="E70" t="str">
-            <v>Biswajeet Mistry Yadav</v>
+          <cell r="A70" t="str">
+            <v>MMS18-20/69</v>
+          </cell>
+          <cell r="B70" t="str">
+            <v>GUPTA PRAMOD OMPRAKASH RAMAVATI</v>
           </cell>
         </row>
         <row r="71">
-          <cell r="A71">
-            <v>1719070</v>
-          </cell>
-          <cell r="E71" t="str">
-            <v>Badal Murmu Yadav</v>
+          <cell r="A71" t="str">
+            <v>MMS18-20/70</v>
+          </cell>
+          <cell r="B71" t="str">
+            <v>JADHAV SHWETA NARESH LATA</v>
           </cell>
         </row>
         <row r="72">
-          <cell r="A72">
-            <v>1719071</v>
-          </cell>
-          <cell r="E72" t="str">
-            <v>Chinthala Sathish Chandra</v>
+          <cell r="A72" t="str">
+            <v>MMS18-20/71</v>
+          </cell>
+          <cell r="B72" t="str">
+            <v>INGLE ATHARAVA SHASHIKANT SAILEE</v>
           </cell>
         </row>
         <row r="73">
-          <cell r="A73">
-            <v>1719072</v>
-          </cell>
-          <cell r="E73" t="str">
-            <v>Vadde Sanjeev Chandra</v>
+          <cell r="A73" t="str">
+            <v>MMS18-20/72</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>KEMPU VIDYA LAXMAN SHANTAMMA</v>
           </cell>
         </row>
         <row r="74">
-          <cell r="A74">
-            <v>1719073</v>
-          </cell>
-          <cell r="E74" t="str">
-            <v>B Rajender Naik</v>
+          <cell r="A74" t="str">
+            <v>MMS18-20/73</v>
+          </cell>
+          <cell r="B74" t="str">
+            <v>KHADE VRUSHALEE SUKHADEV RAJASHREE</v>
           </cell>
         </row>
         <row r="75">
-          <cell r="A75">
-            <v>1719074</v>
-          </cell>
-          <cell r="E75" t="str">
-            <v>Gaurav Mehta Naik</v>
+          <cell r="A75" t="str">
+            <v>MMS18-20/74</v>
+          </cell>
+          <cell r="B75" t="str">
+            <v>KUSHWAHA PRAMOD RAMSAKHA ASHA</v>
           </cell>
         </row>
         <row r="76">
-          <cell r="A76">
-            <v>1719075</v>
-          </cell>
-          <cell r="E76" t="str">
-            <v>Naveen Kumar Molleti</v>
+          <cell r="A76" t="str">
+            <v>MMS18-20/75</v>
+          </cell>
+          <cell r="B76" t="str">
+            <v>MAURYA NEHA JAYSHANKAR GEETA</v>
           </cell>
         </row>
         <row r="77">
-          <cell r="A77">
-            <v>1719076</v>
-          </cell>
-          <cell r="E77" t="str">
-            <v>Rahul Kumar Srivastava</v>
+          <cell r="A77" t="str">
+            <v>MMS18-20/76</v>
+          </cell>
+          <cell r="B77" t="str">
+            <v>PANCHAL SWAPNIL SATYAWAN MANASI</v>
           </cell>
         </row>
         <row r="78">
-          <cell r="A78">
-            <v>1719077</v>
-          </cell>
-          <cell r="E78" t="str">
-            <v>Saurabh Kumar Goyal</v>
+          <cell r="A78" t="str">
+            <v>MMS18-20/77</v>
+          </cell>
+          <cell r="B78" t="str">
+            <v>PANDYA VANESHA EDWIN SHASHMIRA</v>
           </cell>
         </row>
         <row r="79">
-          <cell r="A79">
-            <v>1719078</v>
-          </cell>
-          <cell r="E79" t="str">
-            <v>Narendra Kumar Tangella</v>
+          <cell r="A79" t="str">
+            <v>MMS18-20/78</v>
+          </cell>
+          <cell r="B79" t="str">
+            <v xml:space="preserve">PATEKAR RUPESH GANESH MANJULA </v>
           </cell>
         </row>
         <row r="80">
-          <cell r="A80">
-            <v>1719079</v>
-          </cell>
-          <cell r="E80" t="str">
-            <v>Nandam Karthik Kumar</v>
+          <cell r="A80" t="str">
+            <v>MMS18-20/79</v>
+          </cell>
+          <cell r="B80" t="str">
+            <v>PATEL PRAGNESH KISHORBHAI DAMYANTIBEN</v>
           </cell>
         </row>
         <row r="81">
-          <cell r="A81">
-            <v>1719080</v>
-          </cell>
-          <cell r="E81" t="str">
-            <v>Atul Kumar Gupta</v>
+          <cell r="A81" t="str">
+            <v>MMS18-20/80</v>
+          </cell>
+          <cell r="B81" t="str">
+            <v>PATIL CHAITALEE NARESH NAMITA</v>
           </cell>
         </row>
         <row r="82">
-          <cell r="A82">
-            <v>1719081</v>
-          </cell>
-          <cell r="E82" t="str">
-            <v>Harsh Vardhan Agarwal</v>
+          <cell r="A82" t="str">
+            <v>MMS18-20/81</v>
+          </cell>
+          <cell r="B82" t="str">
+            <v>PEDNEKAR MADHUGANDHA DILIP DEEPALI</v>
           </cell>
         </row>
         <row r="83">
-          <cell r="A83">
-            <v>1719082</v>
-          </cell>
-          <cell r="E83" t="str">
-            <v>Rayman Preet Agarwal</v>
+          <cell r="A83" t="str">
+            <v>MMS18-20/82</v>
+          </cell>
+          <cell r="B83" t="str">
+            <v>PHANSE SAILEE VINOD LEELA</v>
           </cell>
         </row>
         <row r="84">
-          <cell r="A84">
-            <v>1719083</v>
-          </cell>
-          <cell r="E84" t="str">
-            <v>Aniket Nayak Agarwal</v>
+          <cell r="A84" t="str">
+            <v>MMS18-20/83</v>
+          </cell>
+          <cell r="B84" t="str">
+            <v>PRASAD ROHAN RAJENDRA RAJKUMARI</v>
           </cell>
         </row>
         <row r="85">
-          <cell r="A85">
-            <v>1719084</v>
-          </cell>
-          <cell r="E85" t="str">
-            <v>Siddharth Raghuvansi Agarwal</v>
+          <cell r="A85" t="str">
+            <v>MMS18-20/84</v>
+          </cell>
+          <cell r="B85" t="str">
+            <v>RAI JAYESH RAVINDRANATH DIVYA</v>
           </cell>
         </row>
         <row r="86">
-          <cell r="A86">
-            <v>1719085</v>
-          </cell>
-          <cell r="E86" t="str">
-            <v>Sayantan Ghosh Agarwal</v>
+          <cell r="A86" t="str">
+            <v>MMS18-20/85</v>
+          </cell>
+          <cell r="B86" t="str">
+            <v>RANE ASHWINI SANTOSH SAVITA</v>
           </cell>
         </row>
         <row r="87">
-          <cell r="A87">
-            <v>1719086</v>
-          </cell>
-          <cell r="E87" t="str">
-            <v>Aurosish Mishra Agarwal</v>
+          <cell r="A87" t="str">
+            <v>MMS18-20/86</v>
+          </cell>
+          <cell r="B87" t="str">
+            <v>RANE MAYURI SUHAS ARCHANA</v>
           </cell>
         </row>
         <row r="88">
-          <cell r="A88">
-            <v>1719087</v>
-          </cell>
-          <cell r="E88" t="str">
-            <v>Ashish Jhunjhunwala Agarwal</v>
+          <cell r="A88" t="str">
+            <v>MMS18-20/87</v>
+          </cell>
+          <cell r="B88" t="str">
+            <v>RAORANE SAINI SATISH SANCHITA</v>
           </cell>
         </row>
         <row r="89">
-          <cell r="A89">
-            <v>1719088</v>
-          </cell>
-          <cell r="E89" t="str">
-            <v>Sujan Kundu Agarwal</v>
+          <cell r="A89" t="str">
+            <v>MMS18-20/88</v>
+          </cell>
+          <cell r="B89" t="str">
+            <v>RATHOD OMKAR PANDIT DEVIKA</v>
           </cell>
         </row>
         <row r="90">
-          <cell r="A90">
-            <v>1719089</v>
-          </cell>
-          <cell r="E90" t="str">
-            <v>Bivas Mitra Agarwal</v>
+          <cell r="A90" t="str">
+            <v>MMS18-20/89</v>
+          </cell>
+          <cell r="B90" t="str">
+            <v>SANGLE SINDHANT NAVANATH PRATIBHA</v>
           </cell>
         </row>
         <row r="91">
-          <cell r="A91">
-            <v>1719090</v>
-          </cell>
-          <cell r="E91" t="str">
-            <v>Sujan Kumar Saha</v>
+          <cell r="A91" t="str">
+            <v>MMS18-20/90</v>
+          </cell>
+          <cell r="B91" t="str">
+            <v>SARMALKAR SANIKA SUNILDATTA MANISHA</v>
           </cell>
         </row>
         <row r="92">
-          <cell r="A92">
-            <v>1719091</v>
-          </cell>
-          <cell r="E92" t="str">
-            <v>Plaban Kumar Bhowmick</v>
+          <cell r="A92" t="str">
+            <v>MMS18-20/91</v>
+          </cell>
+          <cell r="B92" t="str">
+            <v>SATAM NEHA ANIL ASMITA</v>
           </cell>
         </row>
         <row r="93">
-          <cell r="A93">
-            <v>1719092</v>
-          </cell>
-          <cell r="E93" t="str">
-            <v>Arnab Kumar Sarkar</v>
+          <cell r="A93" t="str">
+            <v>MMS18-20/92</v>
+          </cell>
+          <cell r="B93" t="str">
+            <v>SAWANT AVADHUT RAJAN SHRADDHA</v>
           </cell>
         </row>
         <row r="94">
-          <cell r="A94">
-            <v>1719093</v>
-          </cell>
-          <cell r="E94" t="str">
-            <v>Alimpan Barua Boro</v>
+          <cell r="A94" t="str">
+            <v>MMS18-20/93</v>
+          </cell>
+          <cell r="B94" t="str">
+            <v>SHARMA PALAK PRAHLAD MRIDULA</v>
           </cell>
         </row>
         <row r="95">
-          <cell r="A95">
-            <v>1719094</v>
-          </cell>
-          <cell r="E95" t="str">
-            <v>Keshav Prawasi Singh</v>
+          <cell r="A95" t="str">
+            <v>MMS18-20/94</v>
+          </cell>
+          <cell r="B95" t="str">
+            <v>SHETTY SHIFALI PRASHANT ASHALATA</v>
           </cell>
         </row>
         <row r="96">
-          <cell r="A96">
-            <v>1719095</v>
-          </cell>
-          <cell r="E96" t="str">
-            <v>Neetesh Gupta Singh</v>
+          <cell r="A96" t="str">
+            <v>MMS18-20/95</v>
+          </cell>
+          <cell r="B96" t="str">
+            <v>SHINDE AKSHAY SURENDRA SUPRIYA</v>
           </cell>
         </row>
         <row r="97">
-          <cell r="A97">
-            <v>1719096</v>
-          </cell>
-          <cell r="E97" t="str">
-            <v>Naveen Kumar Singh</v>
+          <cell r="A97" t="str">
+            <v>MMS18-20/96</v>
+          </cell>
+          <cell r="B97" t="str">
+            <v>SHINDE ASHUTOSH BHASKAR BHAVANA</v>
           </cell>
         </row>
         <row r="98">
-          <cell r="A98">
-            <v>1719097</v>
-          </cell>
-          <cell r="E98" t="str">
-            <v>Sumit Sinha Singh</v>
+          <cell r="A98" t="str">
+            <v>MMS18-20/97</v>
+          </cell>
+          <cell r="B98" t="str">
+            <v>SHINDE NIKHIL KRISHNAT MANISHA</v>
           </cell>
         </row>
         <row r="99">
-          <cell r="A99">
-            <v>1719098</v>
-          </cell>
-          <cell r="E99" t="str">
-            <v>Korlam Gautam Singh</v>
+          <cell r="A99" t="str">
+            <v>MMS18-20/98</v>
+          </cell>
+          <cell r="B99" t="str">
+            <v>SHINDE SAIRAJ VIKAS SHRADHA</v>
           </cell>
         </row>
         <row r="100">
-          <cell r="A100">
-            <v>1719099</v>
-          </cell>
-          <cell r="E100" t="str">
-            <v>Dhoble Sumit Singh</v>
+          <cell r="A100" t="str">
+            <v>MMS18-20/99</v>
+          </cell>
+          <cell r="B100" t="str">
+            <v>SHINDE SURAJ SHASHIKANT SHOBHA</v>
           </cell>
         </row>
         <row r="101">
-          <cell r="A101">
-            <v>1719100</v>
-          </cell>
-          <cell r="E101" t="str">
-            <v>Nandish Tella Naidu</v>
+          <cell r="A101" t="str">
+            <v>MMS18-20/100</v>
+          </cell>
+          <cell r="B101" t="str">
+            <v>SHITYALKAR SHUBHAM DHONDIBA SHALAN</v>
           </cell>
         </row>
         <row r="102">
-          <cell r="A102">
-            <v>1719101</v>
-          </cell>
-          <cell r="E102" t="str">
-            <v>Gautam Kumar Reddy</v>
+          <cell r="A102" t="str">
+            <v>MMS18-20/101</v>
+          </cell>
+          <cell r="B102" t="str">
+            <v>SHIVKAR PRIYANKA JANARDHAN REKHA</v>
           </cell>
         </row>
         <row r="103">
-          <cell r="A103">
-            <v>1719102</v>
-          </cell>
-          <cell r="E103" t="str">
-            <v>Ramdutt Kishav Sharma</v>
+          <cell r="A103" t="str">
+            <v>MMS18-20/102</v>
+          </cell>
+          <cell r="B103" t="str">
+            <v>SHRIGADI ROHIT DHARMENDRA RUPA</v>
           </cell>
         </row>
         <row r="104">
-          <cell r="A104">
-            <v>1719103</v>
-          </cell>
-          <cell r="E104" t="str">
-            <v>Pratik Kishav Agarwal</v>
+          <cell r="A104" t="str">
+            <v>MMS18-20/103</v>
+          </cell>
+          <cell r="B104" t="str">
+            <v>SINGH PRATIK SANJAY MEENA</v>
           </cell>
         </row>
         <row r="105">
-          <cell r="A105">
-            <v>1719104</v>
-          </cell>
-          <cell r="E105" t="str">
-            <v>Rishav Kishav Agarwal</v>
+          <cell r="A105" t="str">
+            <v>MMS18-20/104</v>
+          </cell>
+          <cell r="B105" t="str">
+            <v>SINGH VARSHA GURUPRASAD VEENA</v>
           </cell>
         </row>
         <row r="106">
-          <cell r="A106">
-            <v>1719105</v>
-          </cell>
-          <cell r="E106" t="str">
-            <v>Rakesh Prudhvi Kumar</v>
+          <cell r="A106" t="str">
+            <v>MMS18-20/105</v>
+          </cell>
+          <cell r="B106" t="str">
+            <v>SOLANKI PRAKASH RAMESH SUREKHA</v>
           </cell>
         </row>
         <row r="107">
-          <cell r="A107">
-            <v>1719106</v>
-          </cell>
-          <cell r="E107" t="str">
-            <v>Sayak Mitra Kumar</v>
+          <cell r="A107" t="str">
+            <v>MMS18-20/106</v>
+          </cell>
+          <cell r="B107" t="str">
+            <v>SURYAVANSHI MAYURI DILIP BHAGIRATHI</v>
           </cell>
         </row>
         <row r="108">
-          <cell r="A108">
-            <v>1719107</v>
-          </cell>
-          <cell r="E108" t="str">
-            <v>Achin Gautam Agarwal</v>
+          <cell r="A108" t="str">
+            <v>MMS18-20/107</v>
+          </cell>
+          <cell r="B108" t="str">
+            <v>SWAMY VIOLET BENEDICT JULIET</v>
           </cell>
         </row>
         <row r="109">
-          <cell r="A109">
-            <v>1719108</v>
-          </cell>
-          <cell r="E109" t="str">
-            <v>Avishek Gautam Banerjee</v>
+          <cell r="A109" t="str">
+            <v>MMS18-20/108</v>
+          </cell>
+          <cell r="B109" t="str">
+            <v xml:space="preserve">TAKKE SAIRAJ SURESH SHRUTIKA </v>
           </cell>
         </row>
         <row r="110">
-          <cell r="A110">
-            <v>1719109</v>
-          </cell>
-          <cell r="E110" t="str">
-            <v>Vighnesh Gautam Avadhani</v>
+          <cell r="A110" t="str">
+            <v>MMS18-20/109</v>
+          </cell>
+          <cell r="B110" t="str">
+            <v>TALELE BHOOMA GHANASHYAM KALPANA</v>
           </cell>
         </row>
         <row r="111">
-          <cell r="A111">
-            <v>1719110</v>
-          </cell>
-          <cell r="E111" t="str">
-            <v>Abhinav Gautam Chandel</v>
+          <cell r="A111" t="str">
+            <v>MMS18-20/110</v>
+          </cell>
+          <cell r="B111" t="str">
+            <v>THOOLKAR SAMEER ARVIND KIRAN</v>
           </cell>
         </row>
         <row r="112">
-          <cell r="A112">
-            <v>1719111</v>
-          </cell>
-          <cell r="E112" t="str">
-            <v>Arvind Gautam Das</v>
+          <cell r="A112" t="str">
+            <v>MMS18-20/111</v>
+          </cell>
+          <cell r="B112" t="str">
+            <v>TIWARI VIKAS CHINTAMANI SHAILA</v>
           </cell>
         </row>
         <row r="113">
-          <cell r="A113">
-            <v>1719112</v>
-          </cell>
-          <cell r="E113" t="str">
-            <v>Sunita Suman Das</v>
+          <cell r="A113" t="str">
+            <v>MMS18-20/112</v>
+          </cell>
+          <cell r="B113" t="str">
+            <v>TREHAN VILAKSHAN SUMAN NEENA</v>
           </cell>
         </row>
         <row r="114">
-          <cell r="A114">
-            <v>1719113</v>
-          </cell>
-          <cell r="E114" t="str">
-            <v>Monotosh Suman Das</v>
+          <cell r="A114" t="str">
+            <v>MMS18-20/113</v>
+          </cell>
+          <cell r="B114" t="str">
+            <v>VHAVALE YOGESH VIJANAND ANITA</v>
           </cell>
         </row>
         <row r="115">
-          <cell r="A115">
-            <v>1719114</v>
-          </cell>
-          <cell r="E115" t="str">
-            <v>Sanket Suman Agarwal</v>
+          <cell r="A115" t="str">
+            <v>MMS18-20/114</v>
+          </cell>
+          <cell r="B115" t="str">
+            <v>VICHARE SAMRUDHI SANJAY VAIBHAVI</v>
           </cell>
         </row>
         <row r="116">
-          <cell r="A116">
-            <v>1719115</v>
-          </cell>
-          <cell r="E116" t="str">
-            <v>Arun Dobriyal Walia</v>
+          <cell r="A116" t="str">
+            <v>MMS18-20/115</v>
+          </cell>
+          <cell r="B116" t="str">
+            <v>WAGHMARE SHEETAL SURYAKANT SUNANDA</v>
           </cell>
         </row>
         <row r="117">
-          <cell r="A117">
-            <v>1719116</v>
-          </cell>
-          <cell r="E117" t="str">
-            <v>Rishav Kishav Mishra</v>
+          <cell r="A117" t="str">
+            <v>MMS18-20/116</v>
+          </cell>
+          <cell r="B117" t="str">
+            <v>WANI SHUBHAM RAJENDRA  JYOTI</v>
           </cell>
         </row>
         <row r="118">
-          <cell r="A118">
-            <v>1719117</v>
-          </cell>
-          <cell r="E118" t="str">
-            <v>Aruni Kishav Choudhary</v>
+          <cell r="A118" t="str">
+            <v>MMS18-20/117</v>
+          </cell>
+          <cell r="B118" t="str">
+            <v>YADAV ANKITA OMPRAKASH SHASHANK DEVI</v>
           </cell>
         </row>
         <row r="119">
-          <cell r="A119">
-            <v>1719118</v>
-          </cell>
-          <cell r="E119" t="str">
-            <v>Gyan Baboo Jain</v>
+          <cell r="A119" t="str">
+            <v>MMS18-20/118</v>
+          </cell>
+          <cell r="B119" t="str">
+            <v>YADAV ANUSH MAHANTA MALTI</v>
           </cell>
         </row>
         <row r="120">
-          <cell r="A120">
-            <v>1719119</v>
-          </cell>
-          <cell r="E120" t="str">
-            <v>Rohit Romesh Jain</v>
+          <cell r="A120" t="str">
+            <v>MMS18-20/119</v>
+          </cell>
+          <cell r="B120" t="str">
+            <v>YADAV SUMAN RAMJEET SAVITRIDEVI</v>
           </cell>
         </row>
         <row r="121">
-          <cell r="A121">
-            <v>1719120</v>
-          </cell>
-          <cell r="E121" t="str">
-            <v>Anshul Gupta Jain</v>
+          <cell r="A121" t="str">
+            <v>MMS18-20/120</v>
+          </cell>
+          <cell r="B121" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
           </cell>
         </row>
         <row r="122">
-          <cell r="A122">
-            <v>1719121</v>
-          </cell>
-          <cell r="E122" t="str">
-            <v>Yatendra Dalal Jain</v>
+          <cell r="A122" t="str">
+            <v>MMS18-20/121</v>
+          </cell>
+          <cell r="B122" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
           </cell>
         </row>
         <row r="123">
-          <cell r="A123">
-            <v>1719122</v>
-          </cell>
-          <cell r="E123" t="str">
-            <v>Ravi Shankar Jain</v>
+          <cell r="A123" t="str">
+            <v>MMS18-20/122</v>
+          </cell>
+          <cell r="B123" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
           </cell>
         </row>
         <row r="124">
-          <cell r="A124">
-            <v>1719123</v>
-          </cell>
-          <cell r="E124" t="str">
-            <v>Prav Chheda Singh</v>
+          <cell r="A124" t="str">
+            <v>MMS18-20/123</v>
+          </cell>
+          <cell r="B124" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
           </cell>
         </row>
         <row r="125">
-          <cell r="A125">
-            <v>1719124</v>
-          </cell>
-          <cell r="E125" t="str">
-            <v>Anshuman Tripathi Singh</v>
+          <cell r="A125" t="str">
+            <v>MMS18-20/124</v>
+          </cell>
+          <cell r="B125" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
           </cell>
         </row>
         <row r="126">
-          <cell r="A126">
-            <v>1719125</v>
-          </cell>
-          <cell r="E126" t="str">
-            <v>Kripasindhu Sarkar Singh</v>
+          <cell r="A126" t="str">
+            <v>MMS18-20/125</v>
+          </cell>
+          <cell r="B126" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
           </cell>
         </row>
         <row r="127">
-          <cell r="A127">
-            <v>1719126</v>
-          </cell>
-          <cell r="E127" t="str">
-            <v>Gaurab Basu Singh</v>
+          <cell r="A127" t="str">
+            <v>MMS18-20/126</v>
+          </cell>
+          <cell r="B127" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
           </cell>
         </row>
         <row r="128">
-          <cell r="A128">
-            <v>1719127</v>
-          </cell>
-          <cell r="E128" t="str">
-            <v>Naveen Kumar Singh</v>
+          <cell r="A128" t="str">
+            <v>MMS18-20/127</v>
+          </cell>
+          <cell r="B128" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
           </cell>
         </row>
         <row r="129">
-          <cell r="A129">
-            <v>1719128</v>
-          </cell>
-          <cell r="E129" t="str">
-            <v>Ashis Kumar Sharma</v>
+          <cell r="A129" t="str">
+            <v>MMS18-20/128</v>
+          </cell>
+          <cell r="B129" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
           </cell>
         </row>
         <row r="130">
-          <cell r="A130">
-            <v>1719129</v>
-          </cell>
-          <cell r="E130" t="str">
-            <v>Aniket Jha Yadav</v>
+          <cell r="A130" t="str">
+            <v>MMS18-20/129</v>
+          </cell>
+          <cell r="B130" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
           </cell>
         </row>
         <row r="131">
-          <cell r="A131">
-            <v>1719130</v>
-          </cell>
-          <cell r="E131" t="str">
-            <v>Rahul Rakesh Sharma</v>
+          <cell r="A131" t="str">
+            <v>MMS18-20/130</v>
+          </cell>
+          <cell r="B131" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
           </cell>
         </row>
         <row r="132">
-          <cell r="A132">
-            <v>1719131</v>
-          </cell>
-          <cell r="E132" t="str">
-            <v>Raj Mohan Saxena</v>
+          <cell r="A132" t="str">
+            <v>MMS18-20/131</v>
+          </cell>
+          <cell r="B132" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
           </cell>
         </row>
         <row r="133">
-          <cell r="A133">
-            <v>1719132</v>
-          </cell>
-          <cell r="E133" t="str">
-            <v>Komal Sameer Shelatkar</v>
+          <cell r="A133" t="str">
+            <v>MMS18-20/132</v>
+          </cell>
+          <cell r="B133" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134" t="str">
+            <v>MMS18-20/133</v>
+          </cell>
+          <cell r="B134" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
           </cell>
         </row>
       </sheetData>
@@ -1722,7 +1761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -1730,69 +1769,69 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="6" t="str">
         <f>[1]Sheet1!$A2</f>
-        <v>1719001</v>
-      </c>
-      <c r="B3" s="7" t="str">
-        <f>[1]Sheet1!$E2</f>
-        <v>Vasant Govind Patil</v>
-      </c>
-      <c r="C3" s="13">
+        <v>MMS18-20/1</v>
+      </c>
+      <c r="B3" s="19" t="str">
+        <f>[1]Sheet1!$B2</f>
+        <v>ADEPU CHETAN GANESH ARCHANA</v>
+      </c>
+      <c r="C3" s="12">
         <v>30</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>40</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <f t="shared" ref="E3:E4" si="0">D3+C3</f>
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="6" t="str">
         <f>[1]Sheet1!$A3</f>
-        <v>1719002</v>
-      </c>
-      <c r="B4" s="7" t="str">
-        <f>[1]Sheet1!$E3</f>
-        <v>Debjyoti Roy Patil</v>
+        <v>MMS18-20/2</v>
+      </c>
+      <c r="B4" s="19" t="str">
+        <f>[1]Sheet1!$B3</f>
+        <v>ADIVAREKAR PRITI GIRIGHAR NAMRATA</v>
       </c>
       <c r="C4" s="5">
         <v>25</v>
@@ -1806,13 +1845,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="6" t="str">
         <f>[1]Sheet1!$A4</f>
-        <v>1719003</v>
-      </c>
-      <c r="B5" s="7" t="str">
-        <f>[1]Sheet1!$E4</f>
-        <v>Kaustav Saha Patil</v>
+        <v>MMS18-20/3</v>
+      </c>
+      <c r="B5" s="19" t="str">
+        <f>[1]Sheet1!$B4</f>
+        <v>AMBALLA VISHAL MANOHAR BHARATHI</v>
       </c>
       <c r="C5" s="5">
         <v>32</v>
@@ -1826,13 +1865,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="6" t="str">
         <f>[1]Sheet1!$A5</f>
-        <v>1719004</v>
-      </c>
-      <c r="B6" s="7" t="str">
-        <f>[1]Sheet1!$E5</f>
-        <v>Debobrata Podder Patil</v>
+        <v>MMS18-20/4</v>
+      </c>
+      <c r="B6" s="19" t="str">
+        <f>[1]Sheet1!$B5</f>
+        <v>AMIN MEENAL PRAVIN ANITA</v>
       </c>
       <c r="C6" s="5">
         <v>31</v>
@@ -1846,13 +1885,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="6" t="str">
         <f>[1]Sheet1!$A6</f>
-        <v>1719005</v>
-      </c>
-      <c r="B7" s="7" t="str">
-        <f>[1]Sheet1!$E6</f>
-        <v>Anurag Mark Topno</v>
+        <v>MMS18-20/5</v>
+      </c>
+      <c r="B7" s="19" t="str">
+        <f>[1]Sheet1!$B6</f>
+        <v>ARANJO JULIANA MICHAEL LEENA</v>
       </c>
       <c r="C7" s="5">
         <v>33</v>
@@ -1866,13 +1905,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="6" t="str">
         <f>[1]Sheet1!$A7</f>
-        <v>1719006</v>
-      </c>
-      <c r="B8" s="7" t="str">
-        <f>[1]Sheet1!$E7</f>
-        <v>Tarun Minz Topno</v>
+        <v>MMS18-20/6</v>
+      </c>
+      <c r="B8" s="19" t="str">
+        <f>[1]Sheet1!$B7</f>
+        <v>BAGUL PRANAV PRAMOD MEENA</v>
       </c>
       <c r="C8" s="5">
         <v>32</v>
@@ -1886,13 +1925,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="6" t="str">
         <f>[1]Sheet1!$A8</f>
-        <v>1719007</v>
-      </c>
-      <c r="B9" s="7" t="str">
-        <f>[1]Sheet1!$E8</f>
-        <v>Praveen Rao Rokkam</v>
+        <v>MMS18-20/7</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f>[1]Sheet1!$B8</f>
+        <v>BAMANE RENUKA UTTAM SUNITA</v>
       </c>
       <c r="C9" s="5">
         <v>30</v>
@@ -1906,13 +1945,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="6" t="str">
         <f>[1]Sheet1!$A9</f>
-        <v>1719008</v>
-      </c>
-      <c r="B10" s="7" t="str">
-        <f>[1]Sheet1!$E9</f>
-        <v>Arindam Sharma Rokkam</v>
+        <v>MMS18-20/8</v>
+      </c>
+      <c r="B10" s="19" t="str">
+        <f>[1]Sheet1!$B9</f>
+        <v>BANSODE NAMRATA SUHAS SANGEETA</v>
       </c>
       <c r="C10" s="5">
         <v>29</v>
@@ -1926,13 +1965,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="6" t="str">
         <f>[1]Sheet1!$A10</f>
-        <v>1719009</v>
-      </c>
-      <c r="B11" s="7" t="str">
-        <f>[1]Sheet1!$E10</f>
-        <v>Kaustubh Tripathi Rokkam</v>
+        <v>MMS18-20/9</v>
+      </c>
+      <c r="B11" s="19" t="str">
+        <f>[1]Sheet1!$B10</f>
+        <v>BHAJANI DHANASHREE MANOHAR KAVITA</v>
       </c>
       <c r="C11" s="5">
         <v>27</v>
@@ -1946,13 +1985,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="6" t="str">
         <f>[1]Sheet1!$A11</f>
-        <v>1719010</v>
-      </c>
-      <c r="B12" s="7" t="str">
-        <f>[1]Sheet1!$E11</f>
-        <v>Nakul Gupta Rokkam</v>
+        <v>MMS18-20/10</v>
+      </c>
+      <c r="B12" s="19" t="str">
+        <f>[1]Sheet1!$B11</f>
+        <v>BHANGALE BHUPENDRA RAMESH JYOTI</v>
       </c>
       <c r="C12" s="5">
         <v>31</v>
@@ -1966,13 +2005,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="6" t="str">
         <f>[1]Sheet1!$A12</f>
-        <v>1719011</v>
-      </c>
-      <c r="B13" s="7" t="str">
-        <f>[1]Sheet1!$E12</f>
-        <v>Gaurav Kumar Rokkam</v>
+        <v>MMS18-20/11</v>
+      </c>
+      <c r="B13" s="19" t="str">
+        <f>[1]Sheet1!$B12</f>
+        <v>BHATKAR ANAGHA ANIL AKSHATA</v>
       </c>
       <c r="C13" s="5">
         <v>28</v>
@@ -1986,13 +2025,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="6" t="str">
         <f>[1]Sheet1!$A13</f>
-        <v>1719012</v>
-      </c>
-      <c r="B14" s="7" t="str">
-        <f>[1]Sheet1!$E13</f>
-        <v>Abhiram Kasina Rokkam</v>
+        <v>MMS18-20/12</v>
+      </c>
+      <c r="B14" s="19" t="str">
+        <f>[1]Sheet1!$B13</f>
+        <v>BHOIR PRANAV SURESH SWETA</v>
       </c>
       <c r="C14" s="5">
         <v>30</v>
@@ -2006,13 +2045,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="6" t="str">
         <f>[1]Sheet1!$A14</f>
-        <v>1719013</v>
-      </c>
-      <c r="B15" s="7" t="str">
-        <f>[1]Sheet1!$E14</f>
-        <v>Biplab Sinha Rokkam</v>
+        <v>MMS18-20/13</v>
+      </c>
+      <c r="B15" s="19" t="str">
+        <f>[1]Sheet1!$B14</f>
+        <v>BHOIR VINAYAK CHINTAMAN SHALINI</v>
       </c>
       <c r="C15" s="5">
         <v>25</v>
@@ -2026,13 +2065,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="6" t="str">
         <f>[1]Sheet1!$A15</f>
-        <v>1719014</v>
-      </c>
-      <c r="B16" s="7" t="str">
-        <f>[1]Sheet1!$E15</f>
-        <v>M Jagan Mohan</v>
+        <v>MMS18-20/14</v>
+      </c>
+      <c r="B16" s="19" t="str">
+        <f>[1]Sheet1!$B15</f>
+        <v>BHOSALE MAYUR PRATAPRAO USHA</v>
       </c>
       <c r="C16" s="5">
         <v>32</v>
@@ -2046,13 +2085,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="6" t="str">
         <f>[1]Sheet1!$A16</f>
-        <v>1719015</v>
-      </c>
-      <c r="B17" s="7" t="str">
-        <f>[1]Sheet1!$E16</f>
-        <v>Asit Parija Mohan</v>
+        <v>MMS18-20/15</v>
+      </c>
+      <c r="B17" s="19" t="str">
+        <f>[1]Sheet1!$B16</f>
+        <v>BIDVI ABOLI AJENDRA NEHA</v>
       </c>
       <c r="C17" s="5">
         <v>31</v>
@@ -2066,13 +2105,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="6" t="str">
         <f>[1]Sheet1!$A17</f>
-        <v>1719016</v>
-      </c>
-      <c r="B18" s="7" t="str">
-        <f>[1]Sheet1!$E17</f>
-        <v>Shenoy Naresh Keshav</v>
+        <v>MMS18-20/16</v>
+      </c>
+      <c r="B18" s="19" t="str">
+        <f>[1]Sheet1!$B17</f>
+        <v>BORKAR DIPESH SHYAM SANGITA</v>
       </c>
       <c r="C18" s="5">
         <v>33</v>
@@ -2086,13 +2125,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="6" t="str">
         <f>[1]Sheet1!$A18</f>
-        <v>1719017</v>
-      </c>
-      <c r="B19" s="7" t="str">
-        <f>[1]Sheet1!$E18</f>
-        <v>Amit Kumar Suthar</v>
+        <v>MMS18-20/17</v>
+      </c>
+      <c r="B19" s="19" t="str">
+        <f>[1]Sheet1!$B18</f>
+        <v>CHANDORKAR PRAJAL MADHUKAR VANITA</v>
       </c>
       <c r="C19" s="5">
         <v>32</v>
@@ -2106,13 +2145,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="6" t="str">
         <f>[1]Sheet1!$A19</f>
-        <v>1719018</v>
-      </c>
-      <c r="B20" s="7" t="str">
-        <f>[1]Sheet1!$E19</f>
-        <v>Amar Singh Patel</v>
+        <v>MMS18-20/18</v>
+      </c>
+      <c r="B20" s="19" t="str">
+        <f>[1]Sheet1!$B19</f>
+        <v>CHAUDHARI TRUPAL JEEVAN SMITA</v>
       </c>
       <c r="C20" s="5">
         <v>30</v>
@@ -2126,13 +2165,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="6" t="str">
         <f>[1]Sheet1!$A20</f>
-        <v>1719019</v>
-      </c>
-      <c r="B21" s="7" t="str">
-        <f>[1]Sheet1!$E20</f>
-        <v>Rahul Jaimini Patel</v>
+        <v>MMS18-20/19</v>
+      </c>
+      <c r="B21" s="19" t="str">
+        <f>[1]Sheet1!$B20</f>
+        <v>CHAVAN SURAJ SURESH SUREKHA</v>
       </c>
       <c r="C21" s="5">
         <v>29</v>
@@ -2146,13 +2185,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="6" t="str">
         <f>[1]Sheet1!$A21</f>
-        <v>1719020</v>
-      </c>
-      <c r="B22" s="7" t="str">
-        <f>[1]Sheet1!$E21</f>
-        <v>Rohit Rajgarhia Patel</v>
+        <v>MMS18-20/20</v>
+      </c>
+      <c r="B22" s="19" t="str">
+        <f>[1]Sheet1!$B21</f>
+        <v>CHAWHAN SAMTA VIJAY SUNITA</v>
       </c>
       <c r="C22" s="5">
         <v>27</v>
@@ -2166,13 +2205,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="6" t="str">
         <f>[1]Sheet1!$A22</f>
-        <v>1719021</v>
-      </c>
-      <c r="B23" s="7" t="str">
-        <f>[1]Sheet1!$E22</f>
-        <v>Akshit Sharma Patel</v>
+        <v>MMS18-20/21</v>
+      </c>
+      <c r="B23" s="19" t="str">
+        <f>[1]Sheet1!$B22</f>
+        <v>DESAI SAURABH HARESH HARSHADA</v>
       </c>
       <c r="C23" s="5">
         <v>31</v>
@@ -2186,33 +2225,33 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="6" t="str">
         <f>[1]Sheet1!$A23</f>
-        <v>1719022</v>
-      </c>
-      <c r="B24" s="7" t="str">
-        <f>[1]Sheet1!$E23</f>
-        <v>Divya Kumar Kala</v>
+        <v>MMS18-20/22</v>
+      </c>
+      <c r="B24" s="19" t="str">
+        <f>[1]Sheet1!$B23</f>
+        <v>*** (NOT AVAILABLE) ***</v>
       </c>
       <c r="C24" s="5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D24" s="4">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="6" t="str">
         <f>[1]Sheet1!$A24</f>
-        <v>1719023</v>
-      </c>
-      <c r="B25" s="7" t="str">
-        <f>[1]Sheet1!$E24</f>
-        <v>Sri Harshad Kala</v>
+        <v>MMS18-20/23</v>
+      </c>
+      <c r="B25" s="19" t="str">
+        <f>[1]Sheet1!$B24</f>
+        <v xml:space="preserve">PICHAD DESHMUKH GIRIJA HEMANT MOHINI </v>
       </c>
       <c r="C25" s="5">
         <v>30</v>
@@ -2226,13 +2265,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="6" t="str">
         <f>[1]Sheet1!$A25</f>
-        <v>1719024</v>
-      </c>
-      <c r="B26" s="7" t="str">
-        <f>[1]Sheet1!$E25</f>
-        <v>Micky Mrinal Minz</v>
+        <v>MMS18-20/24</v>
+      </c>
+      <c r="B26" s="19" t="str">
+        <f>[1]Sheet1!$B25</f>
+        <v>DHUMAL SAURABH RAMESH RAJASHREE</v>
       </c>
       <c r="C26" s="5">
         <v>25</v>
@@ -2246,13 +2285,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="6" t="str">
         <f>[1]Sheet1!$A26</f>
-        <v>1719025</v>
-      </c>
-      <c r="B27" s="7" t="str">
-        <f>[1]Sheet1!$E26</f>
-        <v>Nishant Mundu Minz</v>
+        <v>MMS18-20/25</v>
+      </c>
+      <c r="B27" s="19" t="str">
+        <f>[1]Sheet1!$B26</f>
+        <v>DSOUZA FLOSSIE JOACHIM RITA</v>
       </c>
       <c r="C27" s="5">
         <v>32</v>
@@ -2266,13 +2305,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="6" t="str">
         <f>[1]Sheet1!$A27</f>
-        <v>1719026</v>
-      </c>
-      <c r="B28" s="7" t="str">
-        <f>[1]Sheet1!$E27</f>
-        <v>Vinu Rajashekhar Minz</v>
+        <v>MMS18-20/26</v>
+      </c>
+      <c r="B28" s="19" t="str">
+        <f>[1]Sheet1!$B27</f>
+        <v>DYWARSHETTY NEELIMA VENUGOPAL INDUMATI</v>
       </c>
       <c r="C28" s="5">
         <v>31</v>
@@ -2286,13 +2325,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="6" t="str">
         <f>[1]Sheet1!$A28</f>
-        <v>1719027</v>
-      </c>
-      <c r="B29" s="7" t="str">
-        <f>[1]Sheet1!$E28</f>
-        <v>Mainack Mondal Minz</v>
+        <v>MMS18-20/27</v>
+      </c>
+      <c r="B29" s="19" t="str">
+        <f>[1]Sheet1!$B28</f>
+        <v>ERANDE TRUPTI UTTAM SUNITA</v>
       </c>
       <c r="C29" s="5">
         <v>33</v>
@@ -2306,13 +2345,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="6" t="str">
         <f>[1]Sheet1!$A29</f>
-        <v>1719028</v>
-      </c>
-      <c r="B30" s="7" t="str">
-        <f>[1]Sheet1!$E29</f>
-        <v>Debabrata Dey Minz</v>
+        <v>MMS18-20/28</v>
+      </c>
+      <c r="B30" s="19" t="str">
+        <f>[1]Sheet1!$B29</f>
+        <v>GAMBHIRRAO MANISH HARISHCHANDRA RANJANA</v>
       </c>
       <c r="C30" s="5">
         <v>32</v>
@@ -2326,13 +2365,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="6" t="str">
         <f>[1]Sheet1!$A30</f>
-        <v>1719029</v>
-      </c>
-      <c r="B31" s="7" t="str">
-        <f>[1]Sheet1!$E30</f>
-        <v>Vivekananda Najumudheen Bhat</v>
+        <v>MMS18-20/29</v>
+      </c>
+      <c r="B31" s="19" t="str">
+        <f>[1]Sheet1!$B30</f>
+        <v>GANGANI ANKIT SURESH TEJAL</v>
       </c>
       <c r="C31" s="5">
         <v>30</v>
@@ -2346,13 +2385,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="6" t="str">
         <f>[1]Sheet1!$A31</f>
-        <v>1719030</v>
-      </c>
-      <c r="B32" s="7" t="str">
-        <f>[1]Sheet1!$E31</f>
-        <v>Praveen Ankit Sonare</v>
+        <v>MMS18-20/30</v>
+      </c>
+      <c r="B32" s="19" t="str">
+        <f>[1]Sheet1!$B31</f>
+        <v>GANGURDE SAKSHI SUDHIR ASHA</v>
       </c>
       <c r="C32" s="5">
         <v>29</v>
@@ -2366,13 +2405,13 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="6" t="str">
         <f>[1]Sheet1!$A32</f>
-        <v>1719031</v>
-      </c>
-      <c r="B33" s="7" t="str">
-        <f>[1]Sheet1!$E32</f>
-        <v>Ravi Rattan Sonare</v>
+        <v>MMS18-20/31</v>
+      </c>
+      <c r="B33" s="19" t="str">
+        <f>[1]Sheet1!$B32</f>
+        <v>GHUMARE SANKET RAMESH JAYSHREE</v>
       </c>
       <c r="C33" s="5">
         <v>27</v>
@@ -2386,13 +2425,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="6" t="str">
         <f>[1]Sheet1!$A33</f>
-        <v>1719032</v>
-      </c>
-      <c r="B34" s="7" t="str">
-        <f>[1]Sheet1!$E33</f>
-        <v>Anindya Bhowmik Sonare</v>
+        <v>MMS18-20/32</v>
+      </c>
+      <c r="B34" s="19" t="str">
+        <f>[1]Sheet1!$B33</f>
+        <v>GUPTA NITIN RAJESH CHANDRAKALA</v>
       </c>
       <c r="C34" s="5">
         <v>31</v>
@@ -2406,13 +2445,13 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="6" t="str">
         <f>[1]Sheet1!$A34</f>
-        <v>1719033</v>
-      </c>
-      <c r="B35" s="7" t="str">
-        <f>[1]Sheet1!$E34</f>
-        <v>Bishal Lama Sonare</v>
+        <v>MMS18-20/33</v>
+      </c>
+      <c r="B35" s="19" t="str">
+        <f>[1]Sheet1!$B34</f>
+        <v>HANDE RAHUL RANGARAO NALINI</v>
       </c>
       <c r="C35" s="5">
         <v>28</v>
@@ -2426,13 +2465,13 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="6" t="str">
         <f>[1]Sheet1!$A35</f>
-        <v>1719034</v>
-      </c>
-      <c r="B36" s="7" t="str">
-        <f>[1]Sheet1!$E35</f>
-        <v>Arun Kumar Saragadam</v>
+        <v>MMS18-20/34</v>
+      </c>
+      <c r="B36" s="19" t="str">
+        <f>[1]Sheet1!$B35</f>
+        <v>HARMALKAR PRATHAMESH SUBHASH SUBHASHINI</v>
       </c>
       <c r="C36" s="5">
         <v>30</v>
@@ -2446,13 +2485,13 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="6" t="str">
         <f>[1]Sheet1!$A36</f>
-        <v>1719035</v>
-      </c>
-      <c r="B37" s="7" t="str">
-        <f>[1]Sheet1!$E36</f>
-        <v>Arit Kumar Mondal</v>
+        <v>MMS18-20/35</v>
+      </c>
+      <c r="B37" s="19" t="str">
+        <f>[1]Sheet1!$B36</f>
+        <v>KADAM AVIRAJ MOHAN MOHINI</v>
       </c>
       <c r="C37" s="5">
         <v>25</v>
@@ -2466,13 +2505,13 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="6" t="str">
         <f>[1]Sheet1!$A37</f>
-        <v>1719036</v>
-      </c>
-      <c r="B38" s="7" t="str">
-        <f>[1]Sheet1!$E37</f>
-        <v>Akash Rao Mondal</v>
+        <v>MMS18-20/36</v>
+      </c>
+      <c r="B38" s="19" t="str">
+        <f>[1]Sheet1!$B37</f>
+        <v>JADHAV ANKUR SHIVAJI ANAGHA</v>
       </c>
       <c r="C38" s="5">
         <v>32</v>
@@ -2486,13 +2525,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="A39" s="6" t="str">
         <f>[1]Sheet1!$A38</f>
-        <v>1719037</v>
-      </c>
-      <c r="B39" s="7" t="str">
-        <f>[1]Sheet1!$E38</f>
-        <v>Marut Agarwal Mondal</v>
+        <v>MMS18-20/37</v>
+      </c>
+      <c r="B39" s="19" t="str">
+        <f>[1]Sheet1!$B38</f>
+        <v>KADAM AKSHAY RAMESH REEMA</v>
       </c>
       <c r="C39" s="5">
         <v>31</v>
@@ -2506,13 +2545,13 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="A40" s="6" t="str">
         <f>[1]Sheet1!$A39</f>
-        <v>1719038</v>
-      </c>
-      <c r="B40" s="7" t="str">
-        <f>[1]Sheet1!$E39</f>
-        <v>Abhishek Pratap Singh</v>
+        <v>MMS18-20/38</v>
+      </c>
+      <c r="B40" s="19" t="str">
+        <f>[1]Sheet1!$B39</f>
+        <v>KADAM SHANTANU DILEEP ANITA</v>
       </c>
       <c r="C40" s="5">
         <v>33</v>
@@ -2526,13 +2565,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+      <c r="A41" s="6" t="str">
         <f>[1]Sheet1!$A40</f>
-        <v>1719039</v>
-      </c>
-      <c r="B41" s="7" t="str">
-        <f>[1]Sheet1!$E40</f>
-        <v>Sushant Kumar Singh</v>
+        <v>MMS18-20/39</v>
+      </c>
+      <c r="B41" s="19" t="str">
+        <f>[1]Sheet1!$B40</f>
+        <v>KAMBLE NIKHIL KESHAVRAO SUSHILA</v>
       </c>
       <c r="C41" s="5">
         <v>32</v>
@@ -2546,13 +2585,13 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="A42" s="6" t="str">
         <f>[1]Sheet1!$A41</f>
-        <v>1719040</v>
-      </c>
-      <c r="B42" s="7" t="str">
-        <f>[1]Sheet1!$E41</f>
-        <v>Arpit Mishra Singh</v>
+        <v>MMS18-20/40</v>
+      </c>
+      <c r="B42" s="19" t="str">
+        <f>[1]Sheet1!$B41</f>
+        <v>KAMBLE SIDDHESH RAMESH SUHASINI</v>
       </c>
       <c r="C42" s="5">
         <v>30</v>
@@ -2566,13 +2605,13 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="A43" s="6" t="str">
         <f>[1]Sheet1!$A42</f>
-        <v>1719041</v>
-      </c>
-      <c r="B43" s="7" t="str">
-        <f>[1]Sheet1!$E42</f>
-        <v>Abhinav Gupta Singh</v>
+        <v>MMS18-20/41</v>
+      </c>
+      <c r="B43" s="19" t="str">
+        <f>[1]Sheet1!$B42</f>
+        <v>KATARE MAYANK PRAMOD PRANITA</v>
       </c>
       <c r="C43" s="5">
         <v>29</v>
@@ -2586,13 +2625,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="A44" s="6" t="str">
         <f>[1]Sheet1!$A43</f>
-        <v>1719042</v>
-      </c>
-      <c r="B44" s="7" t="str">
-        <f>[1]Sheet1!$E43</f>
-        <v>Togarrati Venkata Nagesh</v>
+        <v>MMS18-20/42</v>
+      </c>
+      <c r="B44" s="19" t="str">
+        <f>[1]Sheet1!$B43</f>
+        <v>KHAN SAIF ALI NIZAM BILKIS</v>
       </c>
       <c r="C44" s="5">
         <v>27</v>
@@ -2606,33 +2645,33 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="A45" s="6" t="str">
         <f>[1]Sheet1!$A44</f>
-        <v>1719043</v>
-      </c>
-      <c r="B45" s="7" t="str">
-        <f>[1]Sheet1!$E44</f>
-        <v>Pam Revanth Nagesh</v>
+        <v>MMS18-20/43</v>
+      </c>
+      <c r="B45" s="19" t="str">
+        <f>[1]Sheet1!$B44</f>
+        <v>*** (NOT AVAILABLE) ***</v>
       </c>
       <c r="C45" s="5">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D45" s="4">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="A46" s="6" t="str">
         <f>[1]Sheet1!$A45</f>
-        <v>1719044</v>
-      </c>
-      <c r="B46" s="7" t="str">
-        <f>[1]Sheet1!$E45</f>
-        <v>Gourav Khaneja Nagesh</v>
+        <v>MMS18-20/44</v>
+      </c>
+      <c r="B46" s="19" t="str">
+        <f>[1]Sheet1!$B45</f>
+        <v>KOLGE VARDA DEEPAK AARTI</v>
       </c>
       <c r="C46" s="5">
         <v>28</v>
@@ -2646,13 +2685,13 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="A47" s="6" t="str">
         <f>[1]Sheet1!$A46</f>
-        <v>1719045</v>
-      </c>
-      <c r="B47" s="7" t="str">
-        <f>[1]Sheet1!$E46</f>
-        <v>Mayank Jaiswal Nagesh</v>
+        <v>MMS18-20/45</v>
+      </c>
+      <c r="B47" s="19" t="str">
+        <f>[1]Sheet1!$B46</f>
+        <v>KOLI PRATIK PRABHAKAR NALINI</v>
       </c>
       <c r="C47" s="5">
         <v>30</v>
@@ -2666,13 +2705,13 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="A48" s="6" t="str">
         <f>[1]Sheet1!$A47</f>
-        <v>1719046</v>
-      </c>
-      <c r="B48" s="7" t="str">
-        <f>[1]Sheet1!$E47</f>
-        <v>Amit Shanker Nagesh</v>
+        <v>MMS18-20/46</v>
+      </c>
+      <c r="B48" s="19" t="str">
+        <f>[1]Sheet1!$B47</f>
+        <v>KONDEKAR VAIBHAV VIJAY VAISHALI</v>
       </c>
       <c r="C48" s="5">
         <v>25</v>
@@ -2686,13 +2725,13 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="A49" s="6" t="str">
         <f>[1]Sheet1!$A48</f>
-        <v>1719047</v>
-      </c>
-      <c r="B49" s="7" t="str">
-        <f>[1]Sheet1!$E48</f>
-        <v>Abhinav Anand Nagesh</v>
+        <v>MMS18-20/47</v>
+      </c>
+      <c r="B49" s="19" t="str">
+        <f>[1]Sheet1!$B48</f>
+        <v>KORE PRASHEEL PRASHANT SHEELA</v>
       </c>
       <c r="C49" s="5">
         <v>32</v>
@@ -2706,13 +2745,13 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+      <c r="A50" s="6" t="str">
         <f>[1]Sheet1!$A49</f>
-        <v>1719048</v>
-      </c>
-      <c r="B50" s="7" t="str">
-        <f>[1]Sheet1!$E49</f>
-        <v>Varun K Choudhary</v>
+        <v>MMS18-20/48</v>
+      </c>
+      <c r="B50" s="19" t="str">
+        <f>[1]Sheet1!$B49</f>
+        <v>LATE VISHAL BALASAHEB PRAMILA</v>
       </c>
       <c r="C50" s="5">
         <v>31</v>
@@ -2726,13 +2765,13 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+      <c r="A51" s="6" t="str">
         <f>[1]Sheet1!$A50</f>
-        <v>1719049</v>
-      </c>
-      <c r="B51" s="7" t="str">
-        <f>[1]Sheet1!$E50</f>
-        <v>Diptesh Chatterjee Choudhary</v>
+        <v>MMS18-20/49</v>
+      </c>
+      <c r="B51" s="19" t="str">
+        <f>[1]Sheet1!$B50</f>
+        <v xml:space="preserve">LOKE TEJAL JITENDRA GEETA </v>
       </c>
       <c r="C51" s="5">
         <v>33</v>
@@ -2746,13 +2785,13 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+      <c r="A52" s="6" t="str">
         <f>[1]Sheet1!$A51</f>
-        <v>1719050</v>
-      </c>
-      <c r="B52" s="7" t="str">
-        <f>[1]Sheet1!$E51</f>
-        <v>Anuj Kumar Singh</v>
+        <v>MMS18-20/50</v>
+      </c>
+      <c r="B52" s="19" t="str">
+        <f>[1]Sheet1!$B51</f>
+        <v>MANDAVKAR CHAITRALI SANJAY SUCHITA</v>
       </c>
       <c r="C52" s="5">
         <v>32</v>
@@ -2766,13 +2805,13 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+      <c r="A53" s="6" t="str">
         <f>[1]Sheet1!$A52</f>
-        <v>1719051</v>
-      </c>
-      <c r="B53" s="7" t="str">
-        <f>[1]Sheet1!$E52</f>
-        <v>Dilpreet Singh Singh</v>
+        <v>MMS18-20/51</v>
+      </c>
+      <c r="B53" s="19" t="str">
+        <f>[1]Sheet1!$B52</f>
+        <v>MARCHANDE SHWETA SHANTARAM SHEETAL</v>
       </c>
       <c r="C53" s="5">
         <v>30</v>
@@ -2786,13 +2825,13 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+      <c r="A54" s="6" t="str">
         <f>[1]Sheet1!$A53</f>
-        <v>1719052</v>
-      </c>
-      <c r="B54" s="7" t="str">
-        <f>[1]Sheet1!$E53</f>
-        <v>Amit Sharma Singh</v>
+        <v>MMS18-20/52</v>
+      </c>
+      <c r="B54" s="19" t="str">
+        <f>[1]Sheet1!$B53</f>
+        <v>MHATRE VARAD GURUNATH SUSHMA</v>
       </c>
       <c r="C54" s="5">
         <v>29</v>
@@ -2806,13 +2845,13 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
+      <c r="A55" s="6" t="str">
         <f>[1]Sheet1!$A54</f>
-        <v>1719053</v>
-      </c>
-      <c r="B55" s="7" t="str">
-        <f>[1]Sheet1!$E54</f>
-        <v>Kammara Yashwanth Kumar</v>
+        <v>MMS18-20/53</v>
+      </c>
+      <c r="B55" s="19" t="str">
+        <f>[1]Sheet1!$B54</f>
+        <v>MISHRA RASHMI SHIVKANT PRATIBHA</v>
       </c>
       <c r="C55" s="5">
         <v>27</v>
@@ -2826,13 +2865,13 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
+      <c r="A56" s="6" t="str">
         <f>[1]Sheet1!$A55</f>
-        <v>1719054</v>
-      </c>
-      <c r="B56" s="7" t="str">
-        <f>[1]Sheet1!$E55</f>
-        <v>Mani Kumar Nallani</v>
+        <v>MMS18-20/54</v>
+      </c>
+      <c r="B56" s="19" t="str">
+        <f>[1]Sheet1!$B55</f>
+        <v>NAIR ANAGHA ANANDKUMAR BHANUMATHI</v>
       </c>
       <c r="C56" s="5">
         <v>31</v>
@@ -2846,13 +2885,13 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
+      <c r="A57" s="6" t="str">
         <f>[1]Sheet1!$A56</f>
-        <v>1719055</v>
-      </c>
-      <c r="B57" s="7" t="str">
-        <f>[1]Sheet1!$E56</f>
-        <v>Rahul Saxena Nallani</v>
+        <v>MMS18-20/55</v>
+      </c>
+      <c r="B57" s="19" t="str">
+        <f>[1]Sheet1!$B56</f>
+        <v xml:space="preserve">PANCHAL ANIKET AVINASH AARTI </v>
       </c>
       <c r="C57" s="5">
         <v>28</v>
@@ -2866,13 +2905,13 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
+      <c r="A58" s="6" t="str">
         <f>[1]Sheet1!$A57</f>
-        <v>1719056</v>
-      </c>
-      <c r="B58" s="7" t="str">
-        <f>[1]Sheet1!$E57</f>
-        <v>Sahil Goyal Nallani</v>
+        <v>MMS18-20/56</v>
+      </c>
+      <c r="B58" s="19" t="str">
+        <f>[1]Sheet1!$B57</f>
+        <v>SHAIKH SAMEER MOHAMMADHUSSAIN FATIMA</v>
       </c>
       <c r="C58" s="5">
         <v>30</v>
@@ -2886,13 +2925,13 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
+      <c r="A59" s="6" t="str">
         <f>[1]Sheet1!$A58</f>
-        <v>1719057</v>
-      </c>
-      <c r="B59" s="7" t="str">
-        <f>[1]Sheet1!$E58</f>
-        <v>Dodda Raviteja Nallani</v>
+        <v>MMS18-20/57</v>
+      </c>
+      <c r="B59" s="19" t="str">
+        <f>[1]Sheet1!$B58</f>
+        <v>SHAMBHARKAR PALLAVI JAGDISH MINAKSHI</v>
       </c>
       <c r="C59" s="5">
         <v>25</v>
@@ -2906,13 +2945,13 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
+      <c r="A60" s="6" t="str">
         <f>[1]Sheet1!$A59</f>
-        <v>1719058</v>
-      </c>
-      <c r="B60" s="7" t="str">
-        <f>[1]Sheet1!$E59</f>
-        <v>Anirudha Patro Nallani</v>
+        <v>MMS18-20/58</v>
+      </c>
+      <c r="B60" s="19" t="str">
+        <f>[1]Sheet1!$B59</f>
+        <v>SINGH ASHWIN BHAGWANPRASAD SADHANA</v>
       </c>
       <c r="C60" s="5">
         <v>32</v>
@@ -2926,13 +2965,13 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
+      <c r="A61" s="6" t="str">
         <f>[1]Sheet1!$A60</f>
-        <v>1719059</v>
-      </c>
-      <c r="B61" s="7" t="str">
-        <f>[1]Sheet1!$E60</f>
-        <v>Mullapudi Pavan Nithin</v>
+        <v>MMS18-20/59</v>
+      </c>
+      <c r="B61" s="19" t="str">
+        <f>[1]Sheet1!$B60</f>
+        <v>WANKHADE NIKHIL MADHUKAR JYOTI</v>
       </c>
       <c r="C61" s="5">
         <v>31</v>
@@ -2946,13 +2985,13 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
+      <c r="A62" s="6" t="str">
         <f>[1]Sheet1!$A61</f>
-        <v>1719060</v>
-      </c>
-      <c r="B62" s="7" t="str">
-        <f>[1]Sheet1!$E61</f>
-        <v>Sameer Hembrom Nithin</v>
+        <v>MMS18-20/60</v>
+      </c>
+      <c r="B62" s="19" t="str">
+        <f>[1]Sheet1!$B61</f>
+        <v>WORLIKAR SIDDHANT PANKAJ VIDYA</v>
       </c>
       <c r="C62" s="5">
         <v>33</v>
@@ -2966,13 +3005,13 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
+      <c r="A63" s="6" t="str">
         <f>[1]Sheet1!$A62</f>
-        <v>1719061</v>
-      </c>
-      <c r="B63" s="7" t="str">
-        <f>[1]Sheet1!$E62</f>
-        <v>Ayan Mazumdar Nithin</v>
+        <v>MMS18-20/61</v>
+      </c>
+      <c r="B63" s="19" t="str">
+        <f>[1]Sheet1!$B62</f>
+        <v>AGATE AKASH PRAKASH KIRAN</v>
       </c>
       <c r="C63" s="5">
         <v>32</v>
@@ -2986,13 +3025,13 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
+      <c r="A64" s="6" t="str">
         <f>[1]Sheet1!$A63</f>
-        <v>1719062</v>
-      </c>
-      <c r="B64" s="7" t="str">
-        <f>[1]Sheet1!$E63</f>
-        <v>Kiran Kumar Bollam</v>
+        <v>MMS18-20/62</v>
+      </c>
+      <c r="B64" s="19" t="str">
+        <f>[1]Sheet1!$B63</f>
+        <v>AVHAD VISHAKHA MILIND RAKHI</v>
       </c>
       <c r="C64" s="5">
         <v>30</v>
@@ -3006,13 +3045,13 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
+      <c r="A65" s="6" t="str">
         <f>[1]Sheet1!$A64</f>
-        <v>1719063</v>
-      </c>
-      <c r="B65" s="7" t="str">
-        <f>[1]Sheet1!$E64</f>
-        <v>Biswajyoti Das Bollam</v>
+        <v>MMS18-20/63</v>
+      </c>
+      <c r="B65" s="19" t="str">
+        <f>[1]Sheet1!$B64</f>
+        <v>CHILE VARAD KISHOR NEHA</v>
       </c>
       <c r="C65" s="5">
         <v>29</v>
@@ -3026,13 +3065,13 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
+      <c r="A66" s="6" t="str">
         <f>[1]Sheet1!$A65</f>
-        <v>1719064</v>
-      </c>
-      <c r="B66" s="7" t="str">
-        <f>[1]Sheet1!$E65</f>
-        <v>Arka Aloke Bhattacharya</v>
+        <v>MMS18-20/64</v>
+      </c>
+      <c r="B66" s="19" t="str">
+        <f>[1]Sheet1!$B65</f>
+        <v>DALVI AKASH SHANKAR NIRMALA</v>
       </c>
       <c r="C66" s="5">
         <v>27</v>
@@ -3046,13 +3085,13 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
+      <c r="A67" s="6" t="str">
         <f>[1]Sheet1!$A66</f>
-        <v>1719065</v>
-      </c>
-      <c r="B67" s="7" t="str">
-        <f>[1]Sheet1!$E66</f>
-        <v>Abhijeet Kumar Bhattacharya</v>
+        <v>MMS18-20/65</v>
+      </c>
+      <c r="B67" s="19" t="str">
+        <f>[1]Sheet1!$B66</f>
+        <v>DALVI RUTUJA JAGDISH SUPRIYA</v>
       </c>
       <c r="C67" s="5">
         <v>31</v>
@@ -3066,13 +3105,13 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
+      <c r="A68" s="6" t="str">
         <f>[1]Sheet1!$A67</f>
-        <v>1719066</v>
-      </c>
-      <c r="B68" s="7" t="str">
-        <f>[1]Sheet1!$E67</f>
-        <v>Alok Kumar Yadav</v>
+        <v>MMS18-20/66</v>
+      </c>
+      <c r="B68" s="19" t="str">
+        <f>[1]Sheet1!$B67</f>
+        <v xml:space="preserve">GANDHI BHAVIK AJAY HARSHA </v>
       </c>
       <c r="C68" s="5">
         <v>28</v>
@@ -3086,13 +3125,13 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
+      <c r="A69" s="6" t="str">
         <f>[1]Sheet1!$A68</f>
-        <v>1719067</v>
-      </c>
-      <c r="B69" s="7" t="str">
-        <f>[1]Sheet1!$E68</f>
-        <v>Anshul Rai Yadav</v>
+        <v>MMS18-20/67</v>
+      </c>
+      <c r="B69" s="19" t="str">
+        <f>[1]Sheet1!$B68</f>
+        <v>GUNDU MEGHNA GUNASHALI SUJATHA</v>
       </c>
       <c r="C69" s="5">
         <v>30</v>
@@ -3106,13 +3145,13 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
+      <c r="A70" s="6" t="str">
         <f>[1]Sheet1!$A69</f>
-        <v>1719068</v>
-      </c>
-      <c r="B70" s="7" t="str">
-        <f>[1]Sheet1!$E69</f>
-        <v>Mohit Singh Yadav</v>
+        <v>MMS18-20/68</v>
+      </c>
+      <c r="B70" s="19" t="str">
+        <f>[1]Sheet1!$B69</f>
+        <v>GUPTA AAYUSH NEELKAMAL MANSHA</v>
       </c>
       <c r="C70" s="5">
         <v>25</v>
@@ -3126,13 +3165,13 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
+      <c r="A71" s="6" t="str">
         <f>[1]Sheet1!$A70</f>
-        <v>1719069</v>
-      </c>
-      <c r="B71" s="7" t="str">
-        <f>[1]Sheet1!$E70</f>
-        <v>Biswajeet Mistry Yadav</v>
+        <v>MMS18-20/69</v>
+      </c>
+      <c r="B71" s="19" t="str">
+        <f>[1]Sheet1!$B70</f>
+        <v>GUPTA PRAMOD OMPRAKASH RAMAVATI</v>
       </c>
       <c r="C71" s="5">
         <v>32</v>
@@ -3146,13 +3185,13 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
+      <c r="A72" s="6" t="str">
         <f>[1]Sheet1!$A71</f>
-        <v>1719070</v>
-      </c>
-      <c r="B72" s="7" t="str">
-        <f>[1]Sheet1!$E71</f>
-        <v>Badal Murmu Yadav</v>
+        <v>MMS18-20/70</v>
+      </c>
+      <c r="B72" s="19" t="str">
+        <f>[1]Sheet1!$B71</f>
+        <v>JADHAV SHWETA NARESH LATA</v>
       </c>
       <c r="C72" s="5">
         <v>31</v>
@@ -3166,13 +3205,13 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
+      <c r="A73" s="6" t="str">
         <f>[1]Sheet1!$A72</f>
-        <v>1719071</v>
-      </c>
-      <c r="B73" s="7" t="str">
-        <f>[1]Sheet1!$E72</f>
-        <v>Chinthala Sathish Chandra</v>
+        <v>MMS18-20/71</v>
+      </c>
+      <c r="B73" s="19" t="str">
+        <f>[1]Sheet1!$B72</f>
+        <v>INGLE ATHARAVA SHASHIKANT SAILEE</v>
       </c>
       <c r="C73" s="5">
         <v>33</v>
@@ -3186,13 +3225,13 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
+      <c r="A74" s="6" t="str">
         <f>[1]Sheet1!$A73</f>
-        <v>1719072</v>
-      </c>
-      <c r="B74" s="7" t="str">
-        <f>[1]Sheet1!$E73</f>
-        <v>Vadde Sanjeev Chandra</v>
+        <v>MMS18-20/72</v>
+      </c>
+      <c r="B74" s="19" t="str">
+        <f>[1]Sheet1!$B73</f>
+        <v>KEMPU VIDYA LAXMAN SHANTAMMA</v>
       </c>
       <c r="C74" s="5">
         <v>32</v>
@@ -3206,13 +3245,13 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
+      <c r="A75" s="6" t="str">
         <f>[1]Sheet1!$A74</f>
-        <v>1719073</v>
-      </c>
-      <c r="B75" s="7" t="str">
-        <f>[1]Sheet1!$E74</f>
-        <v>B Rajender Naik</v>
+        <v>MMS18-20/73</v>
+      </c>
+      <c r="B75" s="19" t="str">
+        <f>[1]Sheet1!$B74</f>
+        <v>KHADE VRUSHALEE SUKHADEV RAJASHREE</v>
       </c>
       <c r="C75" s="5">
         <v>30</v>
@@ -3226,13 +3265,13 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
+      <c r="A76" s="6" t="str">
         <f>[1]Sheet1!$A75</f>
-        <v>1719074</v>
-      </c>
-      <c r="B76" s="7" t="str">
-        <f>[1]Sheet1!$E75</f>
-        <v>Gaurav Mehta Naik</v>
+        <v>MMS18-20/74</v>
+      </c>
+      <c r="B76" s="19" t="str">
+        <f>[1]Sheet1!$B75</f>
+        <v>KUSHWAHA PRAMOD RAMSAKHA ASHA</v>
       </c>
       <c r="C76" s="5">
         <v>29</v>
@@ -3246,13 +3285,13 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
+      <c r="A77" s="6" t="str">
         <f>[1]Sheet1!$A76</f>
-        <v>1719075</v>
-      </c>
-      <c r="B77" s="7" t="str">
-        <f>[1]Sheet1!$E76</f>
-        <v>Naveen Kumar Molleti</v>
+        <v>MMS18-20/75</v>
+      </c>
+      <c r="B77" s="19" t="str">
+        <f>[1]Sheet1!$B76</f>
+        <v>MAURYA NEHA JAYSHANKAR GEETA</v>
       </c>
       <c r="C77" s="5">
         <v>27</v>
@@ -3266,13 +3305,13 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
+      <c r="A78" s="6" t="str">
         <f>[1]Sheet1!$A77</f>
-        <v>1719076</v>
-      </c>
-      <c r="B78" s="7" t="str">
-        <f>[1]Sheet1!$E77</f>
-        <v>Rahul Kumar Srivastava</v>
+        <v>MMS18-20/76</v>
+      </c>
+      <c r="B78" s="19" t="str">
+        <f>[1]Sheet1!$B77</f>
+        <v>PANCHAL SWAPNIL SATYAWAN MANASI</v>
       </c>
       <c r="C78" s="5">
         <v>31</v>
@@ -3286,13 +3325,13 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
+      <c r="A79" s="6" t="str">
         <f>[1]Sheet1!$A78</f>
-        <v>1719077</v>
-      </c>
-      <c r="B79" s="7" t="str">
-        <f>[1]Sheet1!$E78</f>
-        <v>Saurabh Kumar Goyal</v>
+        <v>MMS18-20/77</v>
+      </c>
+      <c r="B79" s="19" t="str">
+        <f>[1]Sheet1!$B78</f>
+        <v>PANDYA VANESHA EDWIN SHASHMIRA</v>
       </c>
       <c r="C79" s="5">
         <v>28</v>
@@ -3306,13 +3345,13 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
+      <c r="A80" s="6" t="str">
         <f>[1]Sheet1!$A79</f>
-        <v>1719078</v>
-      </c>
-      <c r="B80" s="7" t="str">
-        <f>[1]Sheet1!$E79</f>
-        <v>Narendra Kumar Tangella</v>
+        <v>MMS18-20/78</v>
+      </c>
+      <c r="B80" s="19" t="str">
+        <f>[1]Sheet1!$B79</f>
+        <v xml:space="preserve">PATEKAR RUPESH GANESH MANJULA </v>
       </c>
       <c r="C80" s="5">
         <v>30</v>
@@ -3326,13 +3365,13 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
+      <c r="A81" s="6" t="str">
         <f>[1]Sheet1!$A80</f>
-        <v>1719079</v>
-      </c>
-      <c r="B81" s="7" t="str">
-        <f>[1]Sheet1!$E80</f>
-        <v>Nandam Karthik Kumar</v>
+        <v>MMS18-20/79</v>
+      </c>
+      <c r="B81" s="19" t="str">
+        <f>[1]Sheet1!$B80</f>
+        <v>PATEL PRAGNESH KISHORBHAI DAMYANTIBEN</v>
       </c>
       <c r="C81" s="5">
         <v>25</v>
@@ -3346,13 +3385,13 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
+      <c r="A82" s="6" t="str">
         <f>[1]Sheet1!$A81</f>
-        <v>1719080</v>
-      </c>
-      <c r="B82" s="7" t="str">
-        <f>[1]Sheet1!$E81</f>
-        <v>Atul Kumar Gupta</v>
+        <v>MMS18-20/80</v>
+      </c>
+      <c r="B82" s="19" t="str">
+        <f>[1]Sheet1!$B81</f>
+        <v>PATIL CHAITALEE NARESH NAMITA</v>
       </c>
       <c r="C82" s="5">
         <v>32</v>
@@ -3366,13 +3405,13 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
+      <c r="A83" s="6" t="str">
         <f>[1]Sheet1!$A82</f>
-        <v>1719081</v>
-      </c>
-      <c r="B83" s="7" t="str">
-        <f>[1]Sheet1!$E82</f>
-        <v>Harsh Vardhan Agarwal</v>
+        <v>MMS18-20/81</v>
+      </c>
+      <c r="B83" s="19" t="str">
+        <f>[1]Sheet1!$B82</f>
+        <v>PEDNEKAR MADHUGANDHA DILIP DEEPALI</v>
       </c>
       <c r="C83" s="5">
         <v>31</v>
@@ -3386,13 +3425,13 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
+      <c r="A84" s="6" t="str">
         <f>[1]Sheet1!$A83</f>
-        <v>1719082</v>
-      </c>
-      <c r="B84" s="7" t="str">
-        <f>[1]Sheet1!$E83</f>
-        <v>Rayman Preet Agarwal</v>
+        <v>MMS18-20/82</v>
+      </c>
+      <c r="B84" s="19" t="str">
+        <f>[1]Sheet1!$B83</f>
+        <v>PHANSE SAILEE VINOD LEELA</v>
       </c>
       <c r="C84" s="5">
         <v>33</v>
@@ -3406,13 +3445,13 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
+      <c r="A85" s="6" t="str">
         <f>[1]Sheet1!$A84</f>
-        <v>1719083</v>
-      </c>
-      <c r="B85" s="7" t="str">
-        <f>[1]Sheet1!$E84</f>
-        <v>Aniket Nayak Agarwal</v>
+        <v>MMS18-20/83</v>
+      </c>
+      <c r="B85" s="19" t="str">
+        <f>[1]Sheet1!$B84</f>
+        <v>PRASAD ROHAN RAJENDRA RAJKUMARI</v>
       </c>
       <c r="C85" s="5">
         <v>32</v>
@@ -3426,13 +3465,13 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
+      <c r="A86" s="6" t="str">
         <f>[1]Sheet1!$A85</f>
-        <v>1719084</v>
-      </c>
-      <c r="B86" s="7" t="str">
-        <f>[1]Sheet1!$E85</f>
-        <v>Siddharth Raghuvansi Agarwal</v>
+        <v>MMS18-20/84</v>
+      </c>
+      <c r="B86" s="19" t="str">
+        <f>[1]Sheet1!$B85</f>
+        <v>RAI JAYESH RAVINDRANATH DIVYA</v>
       </c>
       <c r="C86" s="5">
         <v>30</v>
@@ -3446,13 +3485,13 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="6">
+      <c r="A87" s="6" t="str">
         <f>[1]Sheet1!$A86</f>
-        <v>1719085</v>
-      </c>
-      <c r="B87" s="7" t="str">
-        <f>[1]Sheet1!$E86</f>
-        <v>Sayantan Ghosh Agarwal</v>
+        <v>MMS18-20/85</v>
+      </c>
+      <c r="B87" s="19" t="str">
+        <f>[1]Sheet1!$B86</f>
+        <v>RANE ASHWINI SANTOSH SAVITA</v>
       </c>
       <c r="C87" s="5">
         <v>29</v>
@@ -3466,13 +3505,13 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
+      <c r="A88" s="6" t="str">
         <f>[1]Sheet1!$A87</f>
-        <v>1719086</v>
-      </c>
-      <c r="B88" s="7" t="str">
-        <f>[1]Sheet1!$E87</f>
-        <v>Aurosish Mishra Agarwal</v>
+        <v>MMS18-20/86</v>
+      </c>
+      <c r="B88" s="19" t="str">
+        <f>[1]Sheet1!$B87</f>
+        <v>RANE MAYURI SUHAS ARCHANA</v>
       </c>
       <c r="C88" s="5">
         <v>27</v>
@@ -3486,13 +3525,13 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="6">
+      <c r="A89" s="6" t="str">
         <f>[1]Sheet1!$A88</f>
-        <v>1719087</v>
-      </c>
-      <c r="B89" s="7" t="str">
-        <f>[1]Sheet1!$E88</f>
-        <v>Ashish Jhunjhunwala Agarwal</v>
+        <v>MMS18-20/87</v>
+      </c>
+      <c r="B89" s="19" t="str">
+        <f>[1]Sheet1!$B88</f>
+        <v>RAORANE SAINI SATISH SANCHITA</v>
       </c>
       <c r="C89" s="5">
         <v>31</v>
@@ -3506,13 +3545,13 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="6">
+      <c r="A90" s="6" t="str">
         <f>[1]Sheet1!$A89</f>
-        <v>1719088</v>
-      </c>
-      <c r="B90" s="7" t="str">
-        <f>[1]Sheet1!$E89</f>
-        <v>Sujan Kundu Agarwal</v>
+        <v>MMS18-20/88</v>
+      </c>
+      <c r="B90" s="19" t="str">
+        <f>[1]Sheet1!$B89</f>
+        <v>RATHOD OMKAR PANDIT DEVIKA</v>
       </c>
       <c r="C90" s="5">
         <v>28</v>
@@ -3526,13 +3565,13 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="6">
+      <c r="A91" s="6" t="str">
         <f>[1]Sheet1!$A90</f>
-        <v>1719089</v>
-      </c>
-      <c r="B91" s="7" t="str">
-        <f>[1]Sheet1!$E90</f>
-        <v>Bivas Mitra Agarwal</v>
+        <v>MMS18-20/89</v>
+      </c>
+      <c r="B91" s="19" t="str">
+        <f>[1]Sheet1!$B90</f>
+        <v>SANGLE SINDHANT NAVANATH PRATIBHA</v>
       </c>
       <c r="C91" s="5">
         <v>30</v>
@@ -3546,13 +3585,13 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="6">
+      <c r="A92" s="6" t="str">
         <f>[1]Sheet1!$A91</f>
-        <v>1719090</v>
-      </c>
-      <c r="B92" s="7" t="str">
-        <f>[1]Sheet1!$E91</f>
-        <v>Sujan Kumar Saha</v>
+        <v>MMS18-20/90</v>
+      </c>
+      <c r="B92" s="19" t="str">
+        <f>[1]Sheet1!$B91</f>
+        <v>SARMALKAR SANIKA SUNILDATTA MANISHA</v>
       </c>
       <c r="C92" s="5">
         <v>25</v>
@@ -3566,13 +3605,13 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="6">
+      <c r="A93" s="6" t="str">
         <f>[1]Sheet1!$A92</f>
-        <v>1719091</v>
-      </c>
-      <c r="B93" s="7" t="str">
-        <f>[1]Sheet1!$E92</f>
-        <v>Plaban Kumar Bhowmick</v>
+        <v>MMS18-20/91</v>
+      </c>
+      <c r="B93" s="19" t="str">
+        <f>[1]Sheet1!$B92</f>
+        <v>SATAM NEHA ANIL ASMITA</v>
       </c>
       <c r="C93" s="5">
         <v>32</v>
@@ -3586,13 +3625,13 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
+      <c r="A94" s="6" t="str">
         <f>[1]Sheet1!$A93</f>
-        <v>1719092</v>
-      </c>
-      <c r="B94" s="7" t="str">
-        <f>[1]Sheet1!$E93</f>
-        <v>Arnab Kumar Sarkar</v>
+        <v>MMS18-20/92</v>
+      </c>
+      <c r="B94" s="19" t="str">
+        <f>[1]Sheet1!$B93</f>
+        <v>SAWANT AVADHUT RAJAN SHRADDHA</v>
       </c>
       <c r="C94" s="5">
         <v>31</v>
@@ -3606,13 +3645,13 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
+      <c r="A95" s="6" t="str">
         <f>[1]Sheet1!$A94</f>
-        <v>1719093</v>
-      </c>
-      <c r="B95" s="7" t="str">
-        <f>[1]Sheet1!$E94</f>
-        <v>Alimpan Barua Boro</v>
+        <v>MMS18-20/93</v>
+      </c>
+      <c r="B95" s="19" t="str">
+        <f>[1]Sheet1!$B94</f>
+        <v>SHARMA PALAK PRAHLAD MRIDULA</v>
       </c>
       <c r="C95" s="5">
         <v>33</v>
@@ -3626,13 +3665,13 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="6">
+      <c r="A96" s="6" t="str">
         <f>[1]Sheet1!$A95</f>
-        <v>1719094</v>
-      </c>
-      <c r="B96" s="7" t="str">
-        <f>[1]Sheet1!$E95</f>
-        <v>Keshav Prawasi Singh</v>
+        <v>MMS18-20/94</v>
+      </c>
+      <c r="B96" s="19" t="str">
+        <f>[1]Sheet1!$B95</f>
+        <v>SHETTY SHIFALI PRASHANT ASHALATA</v>
       </c>
       <c r="C96" s="5">
         <v>32</v>
@@ -3646,13 +3685,13 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="6">
+      <c r="A97" s="6" t="str">
         <f>[1]Sheet1!$A96</f>
-        <v>1719095</v>
-      </c>
-      <c r="B97" s="7" t="str">
-        <f>[1]Sheet1!$E96</f>
-        <v>Neetesh Gupta Singh</v>
+        <v>MMS18-20/95</v>
+      </c>
+      <c r="B97" s="19" t="str">
+        <f>[1]Sheet1!$B96</f>
+        <v>SHINDE AKSHAY SURENDRA SUPRIYA</v>
       </c>
       <c r="C97" s="5">
         <v>30</v>
@@ -3666,13 +3705,13 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="6">
+      <c r="A98" s="6" t="str">
         <f>[1]Sheet1!$A97</f>
-        <v>1719096</v>
-      </c>
-      <c r="B98" s="7" t="str">
-        <f>[1]Sheet1!$E97</f>
-        <v>Naveen Kumar Singh</v>
+        <v>MMS18-20/96</v>
+      </c>
+      <c r="B98" s="19" t="str">
+        <f>[1]Sheet1!$B97</f>
+        <v>SHINDE ASHUTOSH BHASKAR BHAVANA</v>
       </c>
       <c r="C98" s="5">
         <v>29</v>
@@ -3686,13 +3725,13 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="6">
+      <c r="A99" s="6" t="str">
         <f>[1]Sheet1!$A98</f>
-        <v>1719097</v>
-      </c>
-      <c r="B99" s="7" t="str">
-        <f>[1]Sheet1!$E98</f>
-        <v>Sumit Sinha Singh</v>
+        <v>MMS18-20/97</v>
+      </c>
+      <c r="B99" s="19" t="str">
+        <f>[1]Sheet1!$B98</f>
+        <v>SHINDE NIKHIL KRISHNAT MANISHA</v>
       </c>
       <c r="C99" s="5">
         <v>27</v>
@@ -3706,13 +3745,13 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="6">
+      <c r="A100" s="6" t="str">
         <f>[1]Sheet1!$A99</f>
-        <v>1719098</v>
-      </c>
-      <c r="B100" s="7" t="str">
-        <f>[1]Sheet1!$E99</f>
-        <v>Korlam Gautam Singh</v>
+        <v>MMS18-20/98</v>
+      </c>
+      <c r="B100" s="19" t="str">
+        <f>[1]Sheet1!$B99</f>
+        <v>SHINDE SAIRAJ VIKAS SHRADHA</v>
       </c>
       <c r="C100" s="5">
         <v>31</v>
@@ -3726,13 +3765,13 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="6">
+      <c r="A101" s="6" t="str">
         <f>[1]Sheet1!$A100</f>
-        <v>1719099</v>
-      </c>
-      <c r="B101" s="7" t="str">
-        <f>[1]Sheet1!$E100</f>
-        <v>Dhoble Sumit Singh</v>
+        <v>MMS18-20/99</v>
+      </c>
+      <c r="B101" s="19" t="str">
+        <f>[1]Sheet1!$B100</f>
+        <v>SHINDE SURAJ SHASHIKANT SHOBHA</v>
       </c>
       <c r="C101" s="5">
         <v>28</v>
@@ -3746,13 +3785,13 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="6">
+      <c r="A102" s="6" t="str">
         <f>[1]Sheet1!$A101</f>
-        <v>1719100</v>
-      </c>
-      <c r="B102" s="7" t="str">
-        <f>[1]Sheet1!$E101</f>
-        <v>Nandish Tella Naidu</v>
+        <v>MMS18-20/100</v>
+      </c>
+      <c r="B102" s="19" t="str">
+        <f>[1]Sheet1!$B101</f>
+        <v>SHITYALKAR SHUBHAM DHONDIBA SHALAN</v>
       </c>
       <c r="C102" s="5">
         <v>30</v>
@@ -3766,13 +3805,13 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="6">
+      <c r="A103" s="6" t="str">
         <f>[1]Sheet1!$A102</f>
-        <v>1719101</v>
-      </c>
-      <c r="B103" s="7" t="str">
-        <f>[1]Sheet1!$E102</f>
-        <v>Gautam Kumar Reddy</v>
+        <v>MMS18-20/101</v>
+      </c>
+      <c r="B103" s="19" t="str">
+        <f>[1]Sheet1!$B102</f>
+        <v>SHIVKAR PRIYANKA JANARDHAN REKHA</v>
       </c>
       <c r="C103" s="5">
         <v>25</v>
@@ -3786,13 +3825,13 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="6">
+      <c r="A104" s="6" t="str">
         <f>[1]Sheet1!$A103</f>
-        <v>1719102</v>
-      </c>
-      <c r="B104" s="7" t="str">
-        <f>[1]Sheet1!$E103</f>
-        <v>Ramdutt Kishav Sharma</v>
+        <v>MMS18-20/102</v>
+      </c>
+      <c r="B104" s="19" t="str">
+        <f>[1]Sheet1!$B103</f>
+        <v>SHRIGADI ROHIT DHARMENDRA RUPA</v>
       </c>
       <c r="C104" s="5">
         <v>32</v>
@@ -3806,13 +3845,13 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="6">
+      <c r="A105" s="6" t="str">
         <f>[1]Sheet1!$A104</f>
-        <v>1719103</v>
-      </c>
-      <c r="B105" s="7" t="str">
-        <f>[1]Sheet1!$E104</f>
-        <v>Pratik Kishav Agarwal</v>
+        <v>MMS18-20/103</v>
+      </c>
+      <c r="B105" s="19" t="str">
+        <f>[1]Sheet1!$B104</f>
+        <v>SINGH PRATIK SANJAY MEENA</v>
       </c>
       <c r="C105" s="5">
         <v>31</v>
@@ -3826,13 +3865,13 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="6">
+      <c r="A106" s="6" t="str">
         <f>[1]Sheet1!$A105</f>
-        <v>1719104</v>
-      </c>
-      <c r="B106" s="7" t="str">
-        <f>[1]Sheet1!$E105</f>
-        <v>Rishav Kishav Agarwal</v>
+        <v>MMS18-20/104</v>
+      </c>
+      <c r="B106" s="19" t="str">
+        <f>[1]Sheet1!$B105</f>
+        <v>SINGH VARSHA GURUPRASAD VEENA</v>
       </c>
       <c r="C106" s="5">
         <v>33</v>
@@ -3846,13 +3885,13 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="6">
+      <c r="A107" s="6" t="str">
         <f>[1]Sheet1!$A106</f>
-        <v>1719105</v>
-      </c>
-      <c r="B107" s="7" t="str">
-        <f>[1]Sheet1!$E106</f>
-        <v>Rakesh Prudhvi Kumar</v>
+        <v>MMS18-20/105</v>
+      </c>
+      <c r="B107" s="19" t="str">
+        <f>[1]Sheet1!$B106</f>
+        <v>SOLANKI PRAKASH RAMESH SUREKHA</v>
       </c>
       <c r="C107" s="5">
         <v>32</v>
@@ -3866,13 +3905,13 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="6">
+      <c r="A108" s="6" t="str">
         <f>[1]Sheet1!$A107</f>
-        <v>1719106</v>
-      </c>
-      <c r="B108" s="7" t="str">
-        <f>[1]Sheet1!$E107</f>
-        <v>Sayak Mitra Kumar</v>
+        <v>MMS18-20/106</v>
+      </c>
+      <c r="B108" s="19" t="str">
+        <f>[1]Sheet1!$B107</f>
+        <v>SURYAVANSHI MAYURI DILIP BHAGIRATHI</v>
       </c>
       <c r="C108" s="5">
         <v>30</v>
@@ -3886,13 +3925,13 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="6">
+      <c r="A109" s="6" t="str">
         <f>[1]Sheet1!$A108</f>
-        <v>1719107</v>
-      </c>
-      <c r="B109" s="7" t="str">
-        <f>[1]Sheet1!$E108</f>
-        <v>Achin Gautam Agarwal</v>
+        <v>MMS18-20/107</v>
+      </c>
+      <c r="B109" s="19" t="str">
+        <f>[1]Sheet1!$B108</f>
+        <v>SWAMY VIOLET BENEDICT JULIET</v>
       </c>
       <c r="C109" s="5">
         <v>29</v>
@@ -3906,13 +3945,13 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="6">
+      <c r="A110" s="6" t="str">
         <f>[1]Sheet1!$A109</f>
-        <v>1719108</v>
-      </c>
-      <c r="B110" s="7" t="str">
-        <f>[1]Sheet1!$E109</f>
-        <v>Avishek Gautam Banerjee</v>
+        <v>MMS18-20/108</v>
+      </c>
+      <c r="B110" s="19" t="str">
+        <f>[1]Sheet1!$B109</f>
+        <v xml:space="preserve">TAKKE SAIRAJ SURESH SHRUTIKA </v>
       </c>
       <c r="C110" s="5">
         <v>27</v>
@@ -3926,13 +3965,13 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="6">
+      <c r="A111" s="6" t="str">
         <f>[1]Sheet1!$A110</f>
-        <v>1719109</v>
-      </c>
-      <c r="B111" s="7" t="str">
-        <f>[1]Sheet1!$E110</f>
-        <v>Vighnesh Gautam Avadhani</v>
+        <v>MMS18-20/109</v>
+      </c>
+      <c r="B111" s="19" t="str">
+        <f>[1]Sheet1!$B110</f>
+        <v>TALELE BHOOMA GHANASHYAM KALPANA</v>
       </c>
       <c r="C111" s="5">
         <v>31</v>
@@ -3946,13 +3985,13 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="6">
+      <c r="A112" s="6" t="str">
         <f>[1]Sheet1!$A111</f>
-        <v>1719110</v>
-      </c>
-      <c r="B112" s="7" t="str">
-        <f>[1]Sheet1!$E111</f>
-        <v>Abhinav Gautam Chandel</v>
+        <v>MMS18-20/110</v>
+      </c>
+      <c r="B112" s="19" t="str">
+        <f>[1]Sheet1!$B111</f>
+        <v>THOOLKAR SAMEER ARVIND KIRAN</v>
       </c>
       <c r="C112" s="5">
         <v>28</v>
@@ -3966,13 +4005,13 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="6">
+      <c r="A113" s="6" t="str">
         <f>[1]Sheet1!$A112</f>
-        <v>1719111</v>
-      </c>
-      <c r="B113" s="7" t="str">
-        <f>[1]Sheet1!$E112</f>
-        <v>Arvind Gautam Das</v>
+        <v>MMS18-20/111</v>
+      </c>
+      <c r="B113" s="19" t="str">
+        <f>[1]Sheet1!$B112</f>
+        <v>TIWARI VIKAS CHINTAMANI SHAILA</v>
       </c>
       <c r="C113" s="5">
         <v>30</v>
@@ -3986,13 +4025,13 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="6">
+      <c r="A114" s="6" t="str">
         <f>[1]Sheet1!$A113</f>
-        <v>1719112</v>
-      </c>
-      <c r="B114" s="7" t="str">
-        <f>[1]Sheet1!$E113</f>
-        <v>Sunita Suman Das</v>
+        <v>MMS18-20/112</v>
+      </c>
+      <c r="B114" s="19" t="str">
+        <f>[1]Sheet1!$B113</f>
+        <v>TREHAN VILAKSHAN SUMAN NEENA</v>
       </c>
       <c r="C114" s="5">
         <v>25</v>
@@ -4006,13 +4045,13 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="6">
+      <c r="A115" s="6" t="str">
         <f>[1]Sheet1!$A114</f>
-        <v>1719113</v>
-      </c>
-      <c r="B115" s="7" t="str">
-        <f>[1]Sheet1!$E114</f>
-        <v>Monotosh Suman Das</v>
+        <v>MMS18-20/113</v>
+      </c>
+      <c r="B115" s="19" t="str">
+        <f>[1]Sheet1!$B114</f>
+        <v>VHAVALE YOGESH VIJANAND ANITA</v>
       </c>
       <c r="C115" s="5">
         <v>32</v>
@@ -4026,13 +4065,13 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="6">
+      <c r="A116" s="6" t="str">
         <f>[1]Sheet1!$A115</f>
-        <v>1719114</v>
-      </c>
-      <c r="B116" s="7" t="str">
-        <f>[1]Sheet1!$E115</f>
-        <v>Sanket Suman Agarwal</v>
+        <v>MMS18-20/114</v>
+      </c>
+      <c r="B116" s="19" t="str">
+        <f>[1]Sheet1!$B115</f>
+        <v>VICHARE SAMRUDHI SANJAY VAIBHAVI</v>
       </c>
       <c r="C116" s="5">
         <v>31</v>
@@ -4046,13 +4085,13 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="6">
+      <c r="A117" s="6" t="str">
         <f>[1]Sheet1!$A116</f>
-        <v>1719115</v>
-      </c>
-      <c r="B117" s="7" t="str">
-        <f>[1]Sheet1!$E116</f>
-        <v>Arun Dobriyal Walia</v>
+        <v>MMS18-20/115</v>
+      </c>
+      <c r="B117" s="19" t="str">
+        <f>[1]Sheet1!$B116</f>
+        <v>WAGHMARE SHEETAL SURYAKANT SUNANDA</v>
       </c>
       <c r="C117" s="5">
         <v>33</v>
@@ -4066,13 +4105,13 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="6">
+      <c r="A118" s="6" t="str">
         <f>[1]Sheet1!$A117</f>
-        <v>1719116</v>
-      </c>
-      <c r="B118" s="7" t="str">
-        <f>[1]Sheet1!$E117</f>
-        <v>Rishav Kishav Mishra</v>
+        <v>MMS18-20/116</v>
+      </c>
+      <c r="B118" s="19" t="str">
+        <f>[1]Sheet1!$B117</f>
+        <v>WANI SHUBHAM RAJENDRA  JYOTI</v>
       </c>
       <c r="C118" s="5">
         <v>32</v>
@@ -4086,13 +4125,13 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="6">
+      <c r="A119" s="6" t="str">
         <f>[1]Sheet1!$A118</f>
-        <v>1719117</v>
-      </c>
-      <c r="B119" s="7" t="str">
-        <f>[1]Sheet1!$E118</f>
-        <v>Aruni Kishav Choudhary</v>
+        <v>MMS18-20/117</v>
+      </c>
+      <c r="B119" s="19" t="str">
+        <f>[1]Sheet1!$B118</f>
+        <v>YADAV ANKITA OMPRAKASH SHASHANK DEVI</v>
       </c>
       <c r="C119" s="5">
         <v>30</v>
@@ -4106,13 +4145,13 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="6">
+      <c r="A120" s="6" t="str">
         <f>[1]Sheet1!$A119</f>
-        <v>1719118</v>
-      </c>
-      <c r="B120" s="7" t="str">
-        <f>[1]Sheet1!$E119</f>
-        <v>Gyan Baboo Jain</v>
+        <v>MMS18-20/118</v>
+      </c>
+      <c r="B120" s="19" t="str">
+        <f>[1]Sheet1!$B119</f>
+        <v>YADAV ANUSH MAHANTA MALTI</v>
       </c>
       <c r="C120" s="5">
         <v>29</v>
@@ -4126,13 +4165,13 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="6">
+      <c r="A121" s="6" t="str">
         <f>[1]Sheet1!$A120</f>
-        <v>1719119</v>
-      </c>
-      <c r="B121" s="7" t="str">
-        <f>[1]Sheet1!$E120</f>
-        <v>Rohit Romesh Jain</v>
+        <v>MMS18-20/119</v>
+      </c>
+      <c r="B121" s="19" t="str">
+        <f>[1]Sheet1!$B120</f>
+        <v>YADAV SUMAN RAMJEET SAVITRIDEVI</v>
       </c>
       <c r="C121" s="5">
         <v>27</v>
@@ -4146,280 +4185,315 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="6">
+      <c r="A122" s="6" t="str">
         <f>[1]Sheet1!$A121</f>
-        <v>1719120</v>
-      </c>
-      <c r="B122" s="7" t="str">
-        <f>[1]Sheet1!$E121</f>
-        <v>Anshul Gupta Jain</v>
+        <v>MMS18-20/120</v>
+      </c>
+      <c r="B122" s="19" t="str">
+        <f>[1]Sheet1!$B121</f>
+        <v>*** (NOT AVAILABLE) ***</v>
       </c>
       <c r="C122" s="5">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D122" s="4">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E122" s="2">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="6">
+      <c r="A123" s="6" t="str">
         <f>[1]Sheet1!$A122</f>
-        <v>1719121</v>
-      </c>
-      <c r="B123" s="7" t="str">
-        <f>[1]Sheet1!$E122</f>
-        <v>Yatendra Dalal Jain</v>
+        <v>MMS18-20/121</v>
+      </c>
+      <c r="B123" s="19" t="str">
+        <f>[1]Sheet1!$B122</f>
+        <v>*** (NOT AVAILABLE) ***</v>
       </c>
       <c r="C123" s="5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D123" s="4">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E123" s="2">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="6">
+      <c r="A124" s="6" t="str">
         <f>[1]Sheet1!$A123</f>
-        <v>1719122</v>
-      </c>
-      <c r="B124" s="7" t="str">
-        <f>[1]Sheet1!$E123</f>
-        <v>Ravi Shankar Jain</v>
+        <v>MMS18-20/122</v>
+      </c>
+      <c r="B124" s="19" t="str">
+        <f>[1]Sheet1!$B123</f>
+        <v>*** (NOT AVAILABLE) ***</v>
       </c>
       <c r="C124" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D124" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E124" s="2">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="6">
+      <c r="A125" s="6" t="str">
         <f>[1]Sheet1!$A124</f>
-        <v>1719123</v>
-      </c>
-      <c r="B125" s="7" t="str">
-        <f>[1]Sheet1!$E124</f>
-        <v>Prav Chheda Singh</v>
+        <v>MMS18-20/123</v>
+      </c>
+      <c r="B125" s="19" t="str">
+        <f>[1]Sheet1!$B124</f>
+        <v>*** (NOT AVAILABLE) ***</v>
       </c>
       <c r="C125" s="5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D125" s="4">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E125" s="2">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="6">
+      <c r="A126" s="6" t="str">
         <f>[1]Sheet1!$A125</f>
-        <v>1719124</v>
-      </c>
-      <c r="B126" s="7" t="str">
-        <f>[1]Sheet1!$E125</f>
-        <v>Anshuman Tripathi Singh</v>
+        <v>MMS18-20/124</v>
+      </c>
+      <c r="B126" s="19" t="str">
+        <f>[1]Sheet1!$B125</f>
+        <v>*** (NOT AVAILABLE) ***</v>
       </c>
       <c r="C126" s="5">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D126" s="4">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E126" s="2">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="6">
+      <c r="A127" s="6" t="str">
         <f>[1]Sheet1!$A126</f>
-        <v>1719125</v>
-      </c>
-      <c r="B127" s="7" t="str">
-        <f>[1]Sheet1!$E126</f>
-        <v>Kripasindhu Sarkar Singh</v>
+        <v>MMS18-20/125</v>
+      </c>
+      <c r="B127" s="19" t="str">
+        <f>[1]Sheet1!$B126</f>
+        <v>*** (NOT AVAILABLE) ***</v>
       </c>
       <c r="C127" s="5">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D127" s="4">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E127" s="2">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="6">
+      <c r="A128" s="6" t="str">
         <f>[1]Sheet1!$A127</f>
-        <v>1719126</v>
-      </c>
-      <c r="B128" s="7" t="str">
-        <f>[1]Sheet1!$E127</f>
-        <v>Gaurab Basu Singh</v>
+        <v>MMS18-20/126</v>
+      </c>
+      <c r="B128" s="19" t="str">
+        <f>[1]Sheet1!$B127</f>
+        <v>*** (NOT AVAILABLE) ***</v>
       </c>
       <c r="C128" s="5">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D128" s="4">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E128" s="2">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="6">
+      <c r="A129" s="6" t="str">
         <f>[1]Sheet1!$A128</f>
-        <v>1719127</v>
-      </c>
-      <c r="B129" s="7" t="str">
-        <f>[1]Sheet1!$E128</f>
-        <v>Naveen Kumar Singh</v>
+        <v>MMS18-20/127</v>
+      </c>
+      <c r="B129" s="19" t="str">
+        <f>[1]Sheet1!$B128</f>
+        <v>*** (NOT AVAILABLE) ***</v>
       </c>
       <c r="C129" s="5">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D129" s="4">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E129" s="2">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="6">
+      <c r="A130" s="6" t="str">
         <f>[1]Sheet1!$A129</f>
-        <v>1719128</v>
-      </c>
-      <c r="B130" s="7" t="str">
-        <f>[1]Sheet1!$E129</f>
-        <v>Ashis Kumar Sharma</v>
+        <v>MMS18-20/128</v>
+      </c>
+      <c r="B130" s="19" t="str">
+        <f>[1]Sheet1!$B129</f>
+        <v>*** (NOT AVAILABLE) ***</v>
       </c>
       <c r="C130" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D130" s="4">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E130" s="2">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="6">
+      <c r="A131" s="6" t="str">
         <f>[1]Sheet1!$A130</f>
-        <v>1719129</v>
-      </c>
-      <c r="B131" s="7" t="str">
-        <f>[1]Sheet1!$E130</f>
-        <v>Aniket Jha Yadav</v>
+        <v>MMS18-20/129</v>
+      </c>
+      <c r="B131" s="19" t="str">
+        <f>[1]Sheet1!$B130</f>
+        <v>*** (NOT AVAILABLE) ***</v>
       </c>
       <c r="C131" s="5">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D131" s="4">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E131" s="2">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="6">
+      <c r="A132" s="6" t="str">
         <f>[1]Sheet1!$A131</f>
-        <v>1719130</v>
-      </c>
-      <c r="B132" s="7" t="str">
-        <f>[1]Sheet1!$E131</f>
-        <v>Rahul Rakesh Sharma</v>
+        <v>MMS18-20/130</v>
+      </c>
+      <c r="B132" s="19" t="str">
+        <f>[1]Sheet1!$B131</f>
+        <v>*** (NOT AVAILABLE) ***</v>
       </c>
       <c r="C132" s="5">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D132" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E132" s="2">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="6">
+      <c r="A133" s="6" t="str">
         <f>[1]Sheet1!$A132</f>
-        <v>1719131</v>
-      </c>
-      <c r="B133" s="7" t="str">
-        <f>[1]Sheet1!$E132</f>
-        <v>Raj Mohan Saxena</v>
+        <v>MMS18-20/131</v>
+      </c>
+      <c r="B133" s="19" t="str">
+        <f>[1]Sheet1!$B132</f>
+        <v>*** (NOT AVAILABLE) ***</v>
       </c>
       <c r="C133" s="5">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D133" s="4">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E133" s="2">
         <f t="shared" ref="E133:E134" si="3">D133+C133</f>
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="6">
+      <c r="A134" s="6" t="str">
         <f>[1]Sheet1!$A133</f>
-        <v>1719132</v>
-      </c>
-      <c r="B134" s="7" t="str">
-        <f>[1]Sheet1!$E133</f>
-        <v>Komal Sameer Shelatkar</v>
+        <v>MMS18-20/132</v>
+      </c>
+      <c r="B134" s="19" t="str">
+        <f>[1]Sheet1!$B133</f>
+        <v>*** (NOT AVAILABLE) ***</v>
       </c>
       <c r="C134" s="5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D134" s="4">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E134" s="2">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="str">
+        <f>[1]Sheet1!$A134</f>
+        <v>MMS18-20/133</v>
+      </c>
+      <c r="B135" s="19" t="str">
+        <f>[1]Sheet1!$B134</f>
+        <v>*** (NOT AVAILABLE) ***</v>
+      </c>
+      <c r="C135" s="5">
+        <v>0</v>
+      </c>
+      <c r="D135" s="4">
+        <v>0</v>
+      </c>
+      <c r="E135" s="2">
+        <f t="shared" ref="E135" si="4">D135+C135</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KC0/WoCGDD8IqNtwDi2yfi9/bnPP84i6K0pGIiJBVnbIzZzzzm8OQUuvL/SB3nK0BXHs7S08uFT0/1cSsxw6QA==" saltValue="jd2ciJamuS7DyHrlVJ6nPA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kXen5b0p8yGWVxQoI1kyqUGKedq6HAQzgXNiO3rq0lDDUnLTfWp5Wswb+Ibf1hI1SnSPbcwQ0bjZJLw4T+gnPQ==" saltValue="CfeHeuaVDkkvF1/QhkF66w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
-    <protectedRange sqref="C3:D134" name="Abhishek"/>
+    <protectedRange sqref="C3:D135" name="Abhishek"/>
   </protectedRanges>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
+  <conditionalFormatting sqref="C3:C135">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D135">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E135">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>51</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" errorTitle="Enter Number Between 0 to 40" error="Enter Number Between 0 to 40" sqref="C3:C134" xr:uid="{3CF30319-E3DF-46BF-9272-FB74CB321950}">
+    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" errorTitle="Enter Number Between 0 to 40" error="Enter Number Between 0 to 40" sqref="C3:C135" xr:uid="{3CF30319-E3DF-46BF-9272-FB74CB321950}">
       <formula1>0</formula1>
       <formula2>40</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" errorTitle="Enter Number Between 0 to 60" error="Enter Number Between 0 to 60" sqref="D3:D134" xr:uid="{329575FC-39A2-4CFB-B7E1-ED3D5FB2E869}">
+    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" errorTitle="Enter Number Between 0 to 60" error="Enter Number Between 0 to 60" sqref="D3:D135" xr:uid="{329575FC-39A2-4CFB-B7E1-ED3D5FB2E869}">
       <formula1>0</formula1>
       <formula2>60</formula2>
     </dataValidation>
